--- a/scco.xlsx
+++ b/scco.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dnort\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A7B1CB8A-E6BA-4779-A33F-93A6CD4E7C83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A919C014-9DA3-4454-AA16-CBCE7CD32F23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="27580" windowHeight="17740" activeTab="2" xr2:uid="{F56262E1-0845-4689-AC3F-E446E4ED5BBD}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="27580" windowHeight="17740" xr2:uid="{F56262E1-0845-4689-AC3F-E446E4ED5BBD}"/>
   </bookViews>
   <sheets>
     <sheet name="Contacts" sheetId="2" r:id="rId1"/>
@@ -315,7 +315,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0;\-#,##0;;@"/>
   </numFmts>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -486,6 +486,15 @@
       <u/>
       <sz val="12"/>
       <color rgb="FF0066CC"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -902,7 +911,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1016,36 +1025,29 @@
     <xf numFmtId="164" fontId="10" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -1062,22 +1064,32 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1103,8 +1115,8 @@
     <xf numFmtId="164" fontId="24" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="27" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1674,8 +1686,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E4F8D47-5425-40EE-A5CC-49DA94F37273}">
   <dimension ref="A1:R2001"/>
   <sheetViews>
-    <sheetView showZeros="0" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView showZeros="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1702,7 +1714,10 @@
   <sheetData>
     <row r="1" spans="1:18" ht="45.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="25"/>
-      <c r="B1" s="26"/>
+      <c r="B1" s="104" t="str">
+        <f>HYPERLINK("https://datamateapp.github.io/Outlook.html", "Help")</f>
+        <v>Help</v>
+      </c>
       <c r="C1" s="26"/>
       <c r="D1" s="67" t="str">
         <f>F5</f>
@@ -54039,12 +54054,12 @@
     <row r="3" spans="1:17" ht="20" x14ac:dyDescent="0.4">
       <c r="A3" s="1"/>
       <c r="B3" s="2"/>
-      <c r="C3" s="68" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
+      <c r="C3" s="90" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="24"/>
@@ -54079,7 +54094,7 @@
       <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="70" t="str">
+      <c r="B5" s="92" t="str">
         <f>Contacts!F5</f>
         <v xml:space="preserve"> Project Name</v>
       </c>
@@ -54120,17 +54135,17 @@
       <c r="A7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="70" t="str">
+      <c r="B7" s="92" t="str">
         <f>Contacts!F7</f>
         <v xml:space="preserve"> Owner</v>
       </c>
       <c r="C7" s="71"/>
       <c r="D7" s="71"/>
       <c r="E7" s="71"/>
-      <c r="F7" s="72" t="s">
+      <c r="F7" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="73"/>
+      <c r="G7" s="86"/>
       <c r="H7" s="6"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
@@ -54160,20 +54175,20 @@
       <c r="Q8" s="5"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A9" s="72" t="s">
+      <c r="A9" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="73"/>
-      <c r="C9" s="74"/>
-      <c r="D9" s="74"/>
+      <c r="B9" s="86"/>
+      <c r="C9" s="87"/>
+      <c r="D9" s="87"/>
       <c r="E9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="75" t="s">
+      <c r="F9" s="93" t="s">
         <v>73</v>
       </c>
-      <c r="G9" s="75"/>
-      <c r="H9" s="75"/>
+      <c r="G9" s="93"/>
+      <c r="H9" s="93"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
@@ -54184,19 +54199,19 @@
       <c r="Q9" s="5"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A10" s="72" t="s">
+      <c r="A10" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="73"/>
-      <c r="C10" s="74"/>
-      <c r="D10" s="74"/>
+      <c r="B10" s="86"/>
+      <c r="C10" s="87"/>
+      <c r="D10" s="87"/>
       <c r="E10" s="3"/>
-      <c r="F10" s="76" t="str">
+      <c r="F10" s="88" t="str">
         <f>VLOOKUP(F9,Contacts!C3:R2001,10,FALSE)</f>
         <v>PO Box 976</v>
       </c>
-      <c r="G10" s="76"/>
-      <c r="H10" s="76"/>
+      <c r="G10" s="88"/>
+      <c r="H10" s="88"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
@@ -54207,19 +54222,19 @@
       <c r="Q10" s="5"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A11" s="72" t="s">
+      <c r="A11" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="73"/>
-      <c r="C11" s="74"/>
-      <c r="D11" s="74"/>
+      <c r="B11" s="86"/>
+      <c r="C11" s="87"/>
+      <c r="D11" s="87"/>
       <c r="E11" s="3"/>
-      <c r="F11" s="76" t="str">
+      <c r="F11" s="88" t="str">
         <f>VLOOKUP(F9,Contacts!C3:R2001, 11, FALSE) &amp; ", " &amp; VLOOKUP(F9,Contacts!C3:R2001, 12, FALSE) &amp; " " &amp; VLOOKUP(F9,Contacts!C3:R2001, 13, FALSE)</f>
         <v>Springfield, IL 62523</v>
       </c>
-      <c r="G11" s="77"/>
-      <c r="H11" s="77"/>
+      <c r="G11" s="89"/>
+      <c r="H11" s="89"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
@@ -54230,14 +54245,14 @@
       <c r="Q11" s="5"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A12" s="80"/>
-      <c r="B12" s="79"/>
-      <c r="C12" s="79"/>
-      <c r="D12" s="79"/>
-      <c r="E12" s="79"/>
-      <c r="F12" s="79"/>
-      <c r="G12" s="79"/>
-      <c r="H12" s="79"/>
+      <c r="A12" s="72"/>
+      <c r="B12" s="69"/>
+      <c r="C12" s="69"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="69"/>
+      <c r="F12" s="69"/>
+      <c r="G12" s="69"/>
+      <c r="H12" s="69"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
@@ -54373,8 +54388,8 @@
     </row>
     <row r="19" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="3"/>
-      <c r="B19" s="86"/>
-      <c r="C19" s="87"/>
+      <c r="B19" s="76"/>
+      <c r="C19" s="77"/>
       <c r="D19" s="10">
         <f>SUM(F41)</f>
         <v>0</v>
@@ -54387,11 +54402,11 @@
         <f>SUM(D19:E19)</f>
         <v>0</v>
       </c>
-      <c r="G19" s="88">
+      <c r="G19" s="78">
         <f>SUM(B19+F19)</f>
         <v>0</v>
       </c>
-      <c r="H19" s="89"/>
+      <c r="H19" s="79"/>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
@@ -54420,16 +54435,16 @@
       <c r="Q20" s="5"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A21" s="72" t="s">
+      <c r="A21" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="72"/>
-      <c r="C21" s="72"/>
-      <c r="D21" s="72"/>
-      <c r="E21" s="72"/>
-      <c r="F21" s="72"/>
-      <c r="G21" s="72"/>
-      <c r="H21" s="72"/>
+      <c r="B21" s="80"/>
+      <c r="C21" s="80"/>
+      <c r="D21" s="80"/>
+      <c r="E21" s="80"/>
+      <c r="F21" s="80"/>
+      <c r="G21" s="80"/>
+      <c r="H21" s="80"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
@@ -54461,12 +54476,12 @@
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
-      <c r="D23" s="78" t="str">
+      <c r="D23" s="68" t="str">
         <f>Contacts!F4</f>
         <v>Your Company Name</v>
       </c>
-      <c r="E23" s="79"/>
-      <c r="F23" s="79"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="69"/>
       <c r="G23" s="4"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
@@ -54482,13 +54497,13 @@
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
-      <c r="D24" s="78" t="str">
+      <c r="D24" s="68" t="str">
         <f>VLOOKUP(D23,Contacts!C3:R2001,10,FALSE)</f>
         <v>1234 Construction Lane</v>
       </c>
-      <c r="E24" s="79"/>
-      <c r="F24" s="79"/>
-      <c r="G24" s="79"/>
+      <c r="E24" s="69"/>
+      <c r="F24" s="69"/>
+      <c r="G24" s="69"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
@@ -54503,13 +54518,13 @@
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
-      <c r="D25" s="78" t="str">
+      <c r="D25" s="68" t="str">
         <f>VLOOKUP(D23,Contacts!C3:R2001, 11, FALSE) &amp; ", " &amp; VLOOKUP(D23,Contacts!C3:R2001, 12, FALSE) &amp; " " &amp; VLOOKUP(D23,Contacts!C3:R2001, 13, FALSE)</f>
         <v>Springfield, IL 62523</v>
       </c>
-      <c r="E25" s="79"/>
-      <c r="F25" s="79"/>
-      <c r="G25" s="79"/>
+      <c r="E25" s="69"/>
+      <c r="F25" s="69"/>
+      <c r="G25" s="69"/>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
@@ -54575,7 +54590,7 @@
       <c r="Q28" s="5"/>
     </row>
     <row r="29" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="90" t="s">
+      <c r="A29" s="73" t="s">
         <v>16</v>
       </c>
       <c r="B29" s="71"/>
@@ -54617,10 +54632,10 @@
       <c r="Q30" s="5"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A31" s="91"/>
-      <c r="B31" s="91"/>
-      <c r="C31" s="91"/>
-      <c r="D31" s="91"/>
+      <c r="A31" s="75"/>
+      <c r="B31" s="75"/>
+      <c r="C31" s="75"/>
+      <c r="D31" s="75"/>
       <c r="E31" s="3"/>
       <c r="F31" s="15"/>
       <c r="G31" s="15"/>
@@ -54635,10 +54650,10 @@
       <c r="Q31" s="5"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A32" s="91"/>
-      <c r="B32" s="91"/>
-      <c r="C32" s="91"/>
-      <c r="D32" s="91"/>
+      <c r="A32" s="75"/>
+      <c r="B32" s="75"/>
+      <c r="C32" s="75"/>
+      <c r="D32" s="75"/>
       <c r="E32" s="3"/>
       <c r="F32" s="15"/>
       <c r="G32" s="15"/>
@@ -54653,10 +54668,10 @@
       <c r="Q32" s="5"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A33" s="91"/>
-      <c r="B33" s="91"/>
-      <c r="C33" s="91"/>
-      <c r="D33" s="91"/>
+      <c r="A33" s="75"/>
+      <c r="B33" s="75"/>
+      <c r="C33" s="75"/>
+      <c r="D33" s="75"/>
       <c r="E33" s="3"/>
       <c r="F33" s="15"/>
       <c r="G33" s="15"/>
@@ -54671,10 +54686,10 @@
       <c r="Q33" s="5"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A34" s="91"/>
-      <c r="B34" s="91"/>
-      <c r="C34" s="91"/>
-      <c r="D34" s="91"/>
+      <c r="A34" s="75"/>
+      <c r="B34" s="75"/>
+      <c r="C34" s="75"/>
+      <c r="D34" s="75"/>
       <c r="E34" s="3"/>
       <c r="F34" s="15"/>
       <c r="G34" s="15"/>
@@ -54689,10 +54704,10 @@
       <c r="Q34" s="5"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A35" s="91"/>
-      <c r="B35" s="91"/>
-      <c r="C35" s="91"/>
-      <c r="D35" s="91"/>
+      <c r="A35" s="75"/>
+      <c r="B35" s="75"/>
+      <c r="C35" s="75"/>
+      <c r="D35" s="75"/>
       <c r="E35" s="3"/>
       <c r="F35" s="15"/>
       <c r="G35" s="15"/>
@@ -54707,10 +54722,10 @@
       <c r="Q35" s="5"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A36" s="91"/>
-      <c r="B36" s="91"/>
-      <c r="C36" s="91"/>
-      <c r="D36" s="91"/>
+      <c r="A36" s="75"/>
+      <c r="B36" s="75"/>
+      <c r="C36" s="75"/>
+      <c r="D36" s="75"/>
       <c r="E36" s="3"/>
       <c r="F36" s="15"/>
       <c r="G36" s="15"/>
@@ -54725,10 +54740,10 @@
       <c r="Q36" s="5"/>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A37" s="91"/>
-      <c r="B37" s="91"/>
-      <c r="C37" s="91"/>
-      <c r="D37" s="91"/>
+      <c r="A37" s="75"/>
+      <c r="B37" s="75"/>
+      <c r="C37" s="75"/>
+      <c r="D37" s="75"/>
       <c r="E37" s="3"/>
       <c r="F37" s="15"/>
       <c r="G37" s="15"/>
@@ -54743,10 +54758,10 @@
       <c r="Q37" s="5"/>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A38" s="91"/>
-      <c r="B38" s="91"/>
-      <c r="C38" s="91"/>
-      <c r="D38" s="91"/>
+      <c r="A38" s="75"/>
+      <c r="B38" s="75"/>
+      <c r="C38" s="75"/>
+      <c r="D38" s="75"/>
       <c r="E38" s="3"/>
       <c r="F38" s="15"/>
       <c r="G38" s="15"/>
@@ -54761,10 +54776,10 @@
       <c r="Q38" s="5"/>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A39" s="91"/>
-      <c r="B39" s="91"/>
-      <c r="C39" s="91"/>
-      <c r="D39" s="91"/>
+      <c r="A39" s="75"/>
+      <c r="B39" s="75"/>
+      <c r="C39" s="75"/>
+      <c r="D39" s="75"/>
       <c r="E39" s="3"/>
       <c r="F39" s="15"/>
       <c r="G39" s="15"/>
@@ -54779,10 +54794,10 @@
       <c r="Q39" s="5"/>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A40" s="91"/>
-      <c r="B40" s="91"/>
-      <c r="C40" s="91"/>
-      <c r="D40" s="91"/>
+      <c r="A40" s="75"/>
+      <c r="B40" s="75"/>
+      <c r="C40" s="75"/>
+      <c r="D40" s="75"/>
       <c r="E40" s="3"/>
       <c r="F40" s="15"/>
       <c r="G40" s="15"/>
@@ -54841,10 +54856,10 @@
       <c r="Q42" s="5"/>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A43" s="80" t="s">
+      <c r="A43" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="B43" s="79"/>
+      <c r="B43" s="69"/>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3" t="s">
@@ -54881,14 +54896,14 @@
       <c r="Q44" s="5"/>
     </row>
     <row r="45" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="78" t="str">
+      <c r="A45" s="68" t="str">
         <f>F9</f>
         <v>Example Subcontractor</v>
       </c>
-      <c r="B45" s="79"/>
-      <c r="C45" s="79"/>
-      <c r="D45" s="79"/>
-      <c r="E45" s="92" t="s">
+      <c r="B45" s="69"/>
+      <c r="C45" s="69"/>
+      <c r="D45" s="69"/>
+      <c r="E45" s="70" t="s">
         <v>22</v>
       </c>
       <c r="F45" s="71"/>
@@ -54904,12 +54919,12 @@
       <c r="Q45" s="5"/>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A46" s="80" t="s">
+      <c r="A46" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="B46" s="79"/>
-      <c r="C46" s="79"/>
-      <c r="D46" s="79"/>
+      <c r="B46" s="69"/>
+      <c r="C46" s="69"/>
+      <c r="D46" s="69"/>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
@@ -54927,17 +54942,17 @@
       <c r="A47" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B47" s="90"/>
+      <c r="B47" s="73"/>
       <c r="C47" s="71"/>
       <c r="D47" s="71"/>
       <c r="E47" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="F47" s="93" t="s">
+      <c r="F47" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="G47" s="90"/>
-      <c r="H47" s="90"/>
+      <c r="G47" s="73"/>
+      <c r="H47" s="73"/>
       <c r="I47" s="3"/>
       <c r="J47" s="3"/>
       <c r="K47" s="3"/>
@@ -55626,16 +55641,31 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="E45:H45"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="F47:H47"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="A13:H15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="A21:H21"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="D24:G24"/>
     <mergeCell ref="A43:B43"/>
     <mergeCell ref="A29:B29"/>
     <mergeCell ref="A31:D31"/>
@@ -55643,31 +55673,16 @@
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A34:D34"/>
     <mergeCell ref="A35:D35"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="A21:H21"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="D25:G25"/>
-    <mergeCell ref="A12:H12"/>
-    <mergeCell ref="A13:H15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="E45:H45"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="F47:H47"/>
   </mergeCells>
   <dataValidations count="5">
     <dataValidation allowBlank="1" showErrorMessage="1" sqref="H49 A31:D40 F31:F40 C9:D9 C11:D11" xr:uid="{22CC2D08-D6A2-4BBD-AF11-90F5F6B0C39B}"/>
@@ -55696,7 +55711,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90EEBE3D-F77F-4CAA-877E-E131B9B6D687}">
   <dimension ref="A1:Q200"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" workbookViewId="0">
+    <sheetView showZeros="0" workbookViewId="0">
       <selection activeCell="C10" sqref="C10:D10"/>
     </sheetView>
   </sheetViews>
@@ -55823,12 +55838,12 @@
     <row r="3" spans="1:17" ht="20" x14ac:dyDescent="0.4">
       <c r="A3" s="1"/>
       <c r="B3" s="2"/>
-      <c r="C3" s="68" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
+      <c r="C3" s="90" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="24"/>
@@ -55863,7 +55878,7 @@
       <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="70" t="str">
+      <c r="B5" s="92" t="str">
         <f>Contacts!F5</f>
         <v xml:space="preserve"> Project Name</v>
       </c>
@@ -55904,17 +55919,17 @@
       <c r="A7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="70" t="str">
+      <c r="B7" s="92" t="str">
         <f>Contacts!F7</f>
         <v xml:space="preserve"> Owner</v>
       </c>
       <c r="C7" s="71"/>
       <c r="D7" s="71"/>
       <c r="E7" s="71"/>
-      <c r="F7" s="72" t="s">
+      <c r="F7" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="73"/>
+      <c r="G7" s="86"/>
       <c r="H7" s="6"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
@@ -55944,20 +55959,20 @@
       <c r="Q8" s="5"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A9" s="72" t="s">
+      <c r="A9" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="73"/>
-      <c r="C9" s="74"/>
-      <c r="D9" s="74"/>
+      <c r="B9" s="86"/>
+      <c r="C9" s="87"/>
+      <c r="D9" s="87"/>
       <c r="E9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="75" t="s">
+      <c r="F9" s="93" t="s">
         <v>73</v>
       </c>
-      <c r="G9" s="75"/>
-      <c r="H9" s="75"/>
+      <c r="G9" s="93"/>
+      <c r="H9" s="93"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
@@ -55968,19 +55983,19 @@
       <c r="Q9" s="5"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A10" s="72" t="s">
+      <c r="A10" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="73"/>
-      <c r="C10" s="74"/>
-      <c r="D10" s="74"/>
+      <c r="B10" s="86"/>
+      <c r="C10" s="87"/>
+      <c r="D10" s="87"/>
       <c r="E10" s="3"/>
-      <c r="F10" s="76" t="str">
+      <c r="F10" s="88" t="str">
         <f>VLOOKUP(F9,Contacts!C3:R2001,10,FALSE)</f>
         <v>PO Box 976</v>
       </c>
-      <c r="G10" s="76"/>
-      <c r="H10" s="76"/>
+      <c r="G10" s="88"/>
+      <c r="H10" s="88"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
@@ -55991,19 +56006,19 @@
       <c r="Q10" s="5"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A11" s="72" t="s">
+      <c r="A11" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="73"/>
-      <c r="C11" s="74"/>
-      <c r="D11" s="74"/>
+      <c r="B11" s="86"/>
+      <c r="C11" s="87"/>
+      <c r="D11" s="87"/>
       <c r="E11" s="3"/>
-      <c r="F11" s="76" t="str">
+      <c r="F11" s="88" t="str">
         <f>VLOOKUP(F9,Contacts!C3:R2001, 11, FALSE) &amp; ", " &amp; VLOOKUP(F9,Contacts!C3:R2001, 12, FALSE) &amp; " " &amp; VLOOKUP(F9,Contacts!C3:R2001, 13, FALSE)</f>
         <v>Springfield, IL 62523</v>
       </c>
-      <c r="G11" s="77"/>
-      <c r="H11" s="77"/>
+      <c r="G11" s="89"/>
+      <c r="H11" s="89"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
@@ -56014,14 +56029,14 @@
       <c r="Q11" s="5"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A12" s="80"/>
-      <c r="B12" s="79"/>
-      <c r="C12" s="79"/>
-      <c r="D12" s="79"/>
-      <c r="E12" s="79"/>
-      <c r="F12" s="79"/>
-      <c r="G12" s="79"/>
-      <c r="H12" s="79"/>
+      <c r="A12" s="72"/>
+      <c r="B12" s="69"/>
+      <c r="C12" s="69"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="69"/>
+      <c r="F12" s="69"/>
+      <c r="G12" s="69"/>
+      <c r="H12" s="69"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
@@ -56157,8 +56172,8 @@
     </row>
     <row r="19" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="3"/>
-      <c r="B19" s="86"/>
-      <c r="C19" s="87"/>
+      <c r="B19" s="76"/>
+      <c r="C19" s="77"/>
       <c r="D19" s="10">
         <f>SUM(F41)</f>
         <v>0</v>
@@ -56171,11 +56186,11 @@
         <f>SUM(D19:E19)</f>
         <v>0</v>
       </c>
-      <c r="G19" s="88">
+      <c r="G19" s="78">
         <f>SUM(B19+F19)</f>
         <v>0</v>
       </c>
-      <c r="H19" s="89"/>
+      <c r="H19" s="79"/>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
@@ -56204,16 +56219,16 @@
       <c r="Q20" s="5"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A21" s="72" t="s">
+      <c r="A21" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="72"/>
-      <c r="C21" s="72"/>
-      <c r="D21" s="72"/>
-      <c r="E21" s="72"/>
-      <c r="F21" s="72"/>
-      <c r="G21" s="72"/>
-      <c r="H21" s="72"/>
+      <c r="B21" s="80"/>
+      <c r="C21" s="80"/>
+      <c r="D21" s="80"/>
+      <c r="E21" s="80"/>
+      <c r="F21" s="80"/>
+      <c r="G21" s="80"/>
+      <c r="H21" s="80"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
@@ -56245,12 +56260,12 @@
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
-      <c r="D23" s="78" t="str">
+      <c r="D23" s="68" t="str">
         <f>Contacts!F4</f>
         <v>Your Company Name</v>
       </c>
-      <c r="E23" s="79"/>
-      <c r="F23" s="79"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="69"/>
       <c r="G23" s="4"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
@@ -56266,13 +56281,13 @@
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
-      <c r="D24" s="78" t="str">
+      <c r="D24" s="68" t="str">
         <f>VLOOKUP(D23,Contacts!C3:R2001,10,FALSE)</f>
         <v>1234 Construction Lane</v>
       </c>
-      <c r="E24" s="79"/>
-      <c r="F24" s="79"/>
-      <c r="G24" s="79"/>
+      <c r="E24" s="69"/>
+      <c r="F24" s="69"/>
+      <c r="G24" s="69"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
@@ -56287,13 +56302,13 @@
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
-      <c r="D25" s="78" t="str">
+      <c r="D25" s="68" t="str">
         <f>VLOOKUP(D23,Contacts!C3:R2001, 11, FALSE) &amp; ", " &amp; VLOOKUP(D23,Contacts!C3:R2001, 12, FALSE) &amp; " " &amp; VLOOKUP(D23,Contacts!C3:R2001, 13, FALSE)</f>
         <v>Springfield, IL 62523</v>
       </c>
-      <c r="E25" s="79"/>
-      <c r="F25" s="79"/>
-      <c r="G25" s="79"/>
+      <c r="E25" s="69"/>
+      <c r="F25" s="69"/>
+      <c r="G25" s="69"/>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
@@ -56359,7 +56374,7 @@
       <c r="Q28" s="5"/>
     </row>
     <row r="29" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="90" t="s">
+      <c r="A29" s="73" t="s">
         <v>16</v>
       </c>
       <c r="B29" s="71"/>
@@ -56401,10 +56416,10 @@
       <c r="Q30" s="5"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A31" s="91"/>
-      <c r="B31" s="91"/>
-      <c r="C31" s="91"/>
-      <c r="D31" s="91"/>
+      <c r="A31" s="75"/>
+      <c r="B31" s="75"/>
+      <c r="C31" s="75"/>
+      <c r="D31" s="75"/>
       <c r="E31" s="3"/>
       <c r="F31" s="15"/>
       <c r="G31" s="15"/>
@@ -56419,10 +56434,10 @@
       <c r="Q31" s="5"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A32" s="91"/>
-      <c r="B32" s="91"/>
-      <c r="C32" s="91"/>
-      <c r="D32" s="91"/>
+      <c r="A32" s="75"/>
+      <c r="B32" s="75"/>
+      <c r="C32" s="75"/>
+      <c r="D32" s="75"/>
       <c r="E32" s="3"/>
       <c r="F32" s="15"/>
       <c r="G32" s="15"/>
@@ -56437,10 +56452,10 @@
       <c r="Q32" s="5"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A33" s="91"/>
-      <c r="B33" s="91"/>
-      <c r="C33" s="91"/>
-      <c r="D33" s="91"/>
+      <c r="A33" s="75"/>
+      <c r="B33" s="75"/>
+      <c r="C33" s="75"/>
+      <c r="D33" s="75"/>
       <c r="E33" s="3"/>
       <c r="F33" s="15"/>
       <c r="G33" s="15"/>
@@ -56455,10 +56470,10 @@
       <c r="Q33" s="5"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A34" s="91"/>
-      <c r="B34" s="91"/>
-      <c r="C34" s="91"/>
-      <c r="D34" s="91"/>
+      <c r="A34" s="75"/>
+      <c r="B34" s="75"/>
+      <c r="C34" s="75"/>
+      <c r="D34" s="75"/>
       <c r="E34" s="3"/>
       <c r="F34" s="15"/>
       <c r="G34" s="15"/>
@@ -56473,10 +56488,10 @@
       <c r="Q34" s="5"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A35" s="91"/>
-      <c r="B35" s="91"/>
-      <c r="C35" s="91"/>
-      <c r="D35" s="91"/>
+      <c r="A35" s="75"/>
+      <c r="B35" s="75"/>
+      <c r="C35" s="75"/>
+      <c r="D35" s="75"/>
       <c r="E35" s="3"/>
       <c r="F35" s="15"/>
       <c r="G35" s="15"/>
@@ -56491,10 +56506,10 @@
       <c r="Q35" s="5"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A36" s="91"/>
-      <c r="B36" s="91"/>
-      <c r="C36" s="91"/>
-      <c r="D36" s="91"/>
+      <c r="A36" s="75"/>
+      <c r="B36" s="75"/>
+      <c r="C36" s="75"/>
+      <c r="D36" s="75"/>
       <c r="E36" s="3"/>
       <c r="F36" s="15"/>
       <c r="G36" s="15"/>
@@ -56509,10 +56524,10 @@
       <c r="Q36" s="5"/>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A37" s="91"/>
-      <c r="B37" s="91"/>
-      <c r="C37" s="91"/>
-      <c r="D37" s="91"/>
+      <c r="A37" s="75"/>
+      <c r="B37" s="75"/>
+      <c r="C37" s="75"/>
+      <c r="D37" s="75"/>
       <c r="E37" s="3"/>
       <c r="F37" s="15"/>
       <c r="G37" s="15"/>
@@ -56527,10 +56542,10 @@
       <c r="Q37" s="5"/>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A38" s="91"/>
-      <c r="B38" s="91"/>
-      <c r="C38" s="91"/>
-      <c r="D38" s="91"/>
+      <c r="A38" s="75"/>
+      <c r="B38" s="75"/>
+      <c r="C38" s="75"/>
+      <c r="D38" s="75"/>
       <c r="E38" s="3"/>
       <c r="F38" s="15"/>
       <c r="G38" s="15"/>
@@ -56545,10 +56560,10 @@
       <c r="Q38" s="5"/>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A39" s="91"/>
-      <c r="B39" s="91"/>
-      <c r="C39" s="91"/>
-      <c r="D39" s="91"/>
+      <c r="A39" s="75"/>
+      <c r="B39" s="75"/>
+      <c r="C39" s="75"/>
+      <c r="D39" s="75"/>
       <c r="E39" s="3"/>
       <c r="F39" s="15"/>
       <c r="G39" s="15"/>
@@ -56563,10 +56578,10 @@
       <c r="Q39" s="5"/>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A40" s="91"/>
-      <c r="B40" s="91"/>
-      <c r="C40" s="91"/>
-      <c r="D40" s="91"/>
+      <c r="A40" s="75"/>
+      <c r="B40" s="75"/>
+      <c r="C40" s="75"/>
+      <c r="D40" s="75"/>
       <c r="E40" s="3"/>
       <c r="F40" s="15"/>
       <c r="G40" s="15"/>
@@ -56625,10 +56640,10 @@
       <c r="Q42" s="5"/>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A43" s="80" t="s">
+      <c r="A43" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="B43" s="79"/>
+      <c r="B43" s="69"/>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3" t="s">
@@ -56665,14 +56680,14 @@
       <c r="Q44" s="5"/>
     </row>
     <row r="45" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="78" t="str">
+      <c r="A45" s="68" t="str">
         <f>F9</f>
         <v>Example Subcontractor</v>
       </c>
-      <c r="B45" s="79"/>
-      <c r="C45" s="79"/>
-      <c r="D45" s="79"/>
-      <c r="E45" s="92" t="s">
+      <c r="B45" s="69"/>
+      <c r="C45" s="69"/>
+      <c r="D45" s="69"/>
+      <c r="E45" s="70" t="s">
         <v>22</v>
       </c>
       <c r="F45" s="71"/>
@@ -56688,12 +56703,12 @@
       <c r="Q45" s="5"/>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A46" s="80" t="s">
+      <c r="A46" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="B46" s="79"/>
-      <c r="C46" s="79"/>
-      <c r="D46" s="79"/>
+      <c r="B46" s="69"/>
+      <c r="C46" s="69"/>
+      <c r="D46" s="69"/>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
@@ -56711,17 +56726,17 @@
       <c r="A47" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B47" s="90"/>
+      <c r="B47" s="73"/>
       <c r="C47" s="71"/>
       <c r="D47" s="71"/>
       <c r="E47" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="F47" s="93" t="s">
+      <c r="F47" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="G47" s="90"/>
-      <c r="H47" s="90"/>
+      <c r="G47" s="73"/>
+      <c r="H47" s="73"/>
       <c r="I47" s="3"/>
       <c r="J47" s="3"/>
       <c r="K47" s="3"/>
@@ -57410,11 +57425,31 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="E45:H45"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="F47:H47"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="A13:H15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="A21:H21"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="D24:G24"/>
     <mergeCell ref="A43:B43"/>
     <mergeCell ref="A29:B29"/>
     <mergeCell ref="A31:D31"/>
@@ -57427,31 +57462,11 @@
     <mergeCell ref="A38:D38"/>
     <mergeCell ref="A39:D39"/>
     <mergeCell ref="A40:D40"/>
-    <mergeCell ref="D25:G25"/>
-    <mergeCell ref="A12:H12"/>
-    <mergeCell ref="A13:H15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="A21:H21"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="E45:H45"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="F47:H47"/>
   </mergeCells>
   <dataValidations count="5">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Owner Change Order Number." sqref="H7" xr:uid="{1FB645DA-E8D8-47CB-9B9F-272B7A06D8B1}"/>
@@ -57501,20 +57516,20 @@
         <f>View_Print!B2</f>
         <v>0</v>
       </c>
-      <c r="B1" s="103" t="str">
+      <c r="B1" s="94" t="str">
         <f>HYPERLINK("https://datamateapp.github.io/Donate%205%20per%20mo.html", "All Apps are free of charge with no ads. Please support DataMateApp and help us grow!")</f>
         <v>All Apps are free of charge with no ads. Please support DataMateApp and help us grow!</v>
       </c>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
       <c r="M1" s="48" t="str">
         <f>Input!M1</f>
         <v>Update 1</v>
@@ -57532,17 +57547,17 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="48"/>
-      <c r="B2" s="94"/>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="94"/>
-      <c r="J2" s="94"/>
-      <c r="K2" s="94"/>
-      <c r="L2" s="94"/>
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="95"/>
+      <c r="L2" s="95"/>
       <c r="P2" s="48"/>
       <c r="Q2" s="48"/>
     </row>
@@ -57555,13 +57570,13 @@
         <f>VLOOKUP(A1,Data!$A$1:$DZU$999999,37,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="C3" s="68" t="e">
+      <c r="C3" s="90" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$999999,38,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
       <c r="G3" s="3" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$999999,42,FALSE)</f>
         <v>#N/A</v>
@@ -57682,7 +57697,7 @@
         <f>VLOOKUP(A1,Data!$A$1:$DZU$999999,70,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="B5" s="70" t="e">
+      <c r="B5" s="92" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$999999,71,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -57804,18 +57819,18 @@
         <f>VLOOKUP(A1,Data!$A$1:$DZU$999999,104,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="B7" s="70" t="e">
+      <c r="B7" s="92" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$999999,105,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="C7" s="71"/>
       <c r="D7" s="71"/>
       <c r="E7" s="71"/>
-      <c r="F7" s="72" t="e">
+      <c r="F7" s="80" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$999999,109,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="G7" s="73"/>
+      <c r="G7" s="86"/>
       <c r="H7" s="6" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$999999,111,FALSE)</f>
         <v>#N/A</v>
@@ -57928,26 +57943,26 @@
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A9" s="72" t="e">
+      <c r="A9" s="80" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$999999,138,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="B9" s="73"/>
-      <c r="C9" s="74" t="e">
+      <c r="B9" s="86"/>
+      <c r="C9" s="87" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$999999,140,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D9" s="74"/>
+      <c r="D9" s="87"/>
       <c r="E9" s="3" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$999999,142,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F9" s="75" t="e">
+      <c r="F9" s="93" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$999999,143,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="G9" s="75"/>
-      <c r="H9" s="75"/>
+      <c r="G9" s="93"/>
+      <c r="H9" s="93"/>
       <c r="I9" s="3" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$999999,146,FALSE)</f>
         <v>#N/A</v>
@@ -57986,26 +58001,26 @@
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A10" s="72" t="e">
+      <c r="A10" s="80" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$999999,155,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="B10" s="73"/>
-      <c r="C10" s="74" t="e">
+      <c r="B10" s="86"/>
+      <c r="C10" s="87" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$999999,157,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D10" s="74"/>
+      <c r="D10" s="87"/>
       <c r="E10" s="3" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$999999,159,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F10" s="76" t="e">
+      <c r="F10" s="88" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$999999,160,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="G10" s="76"/>
-      <c r="H10" s="76"/>
+      <c r="G10" s="88"/>
+      <c r="H10" s="88"/>
       <c r="I10" s="3" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$999999,163,FALSE)</f>
         <v>#N/A</v>
@@ -58044,26 +58059,26 @@
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A11" s="72" t="e">
+      <c r="A11" s="80" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$999999,172,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="B11" s="73"/>
-      <c r="C11" s="74" t="e">
+      <c r="B11" s="86"/>
+      <c r="C11" s="87" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$999999,174,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D11" s="74"/>
+      <c r="D11" s="87"/>
       <c r="E11" s="3" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$999999,176,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F11" s="76" t="e">
+      <c r="F11" s="88" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$999999,177,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="G11" s="77"/>
-      <c r="H11" s="77"/>
+      <c r="G11" s="89"/>
+      <c r="H11" s="89"/>
       <c r="I11" s="3" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$999999,180,FALSE)</f>
         <v>#N/A</v>
@@ -58102,17 +58117,17 @@
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A12" s="80" t="e">
+      <c r="A12" s="72" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$999999,189,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="B12" s="79"/>
-      <c r="C12" s="79"/>
-      <c r="D12" s="79"/>
-      <c r="E12" s="79"/>
-      <c r="F12" s="79"/>
-      <c r="G12" s="79"/>
-      <c r="H12" s="79"/>
+      <c r="B12" s="69"/>
+      <c r="C12" s="69"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="69"/>
+      <c r="F12" s="69"/>
+      <c r="G12" s="69"/>
+      <c r="H12" s="69"/>
       <c r="I12" s="3" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$999999,197,FALSE)</f>
         <v>#N/A</v>
@@ -58494,11 +58509,11 @@
         <f>VLOOKUP(A1,Data!$A$1:$DZU$999999,308,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="B19" s="86" t="e">
+      <c r="B19" s="76" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$999999,309,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="C19" s="87"/>
+      <c r="C19" s="77"/>
       <c r="D19" s="10" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$999999,311,FALSE)</f>
         <v>#N/A</v>
@@ -58511,11 +58526,11 @@
         <f>VLOOKUP(A1,Data!$A$1:$DZU$999999,313,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="G19" s="88" t="e">
+      <c r="G19" s="78" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$999999,314,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="H19" s="89"/>
+      <c r="H19" s="79"/>
       <c r="I19" s="3" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$999999,316,FALSE)</f>
         <v>#N/A</v>
@@ -58624,17 +58639,17 @@
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A21" s="72" t="e">
+      <c r="A21" s="80" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$999999,342,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="B21" s="72"/>
-      <c r="C21" s="72"/>
-      <c r="D21" s="72"/>
-      <c r="E21" s="72"/>
-      <c r="F21" s="72"/>
-      <c r="G21" s="72"/>
-      <c r="H21" s="72"/>
+      <c r="B21" s="80"/>
+      <c r="C21" s="80"/>
+      <c r="D21" s="80"/>
+      <c r="E21" s="80"/>
+      <c r="F21" s="80"/>
+      <c r="G21" s="80"/>
+      <c r="H21" s="80"/>
       <c r="I21" s="3" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$999999,350,FALSE)</f>
         <v>#N/A</v>
@@ -58755,12 +58770,12 @@
         <f>VLOOKUP(A1,Data!$A$1:$DZU$999999,378,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D23" s="78" t="e">
+      <c r="D23" s="68" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$999999,379,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="E23" s="79"/>
-      <c r="F23" s="79"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="69"/>
       <c r="G23" s="4" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$999999,382,FALSE)</f>
         <v>#N/A</v>
@@ -58819,13 +58834,13 @@
         <f>VLOOKUP(A1,Data!$A$1:$DZU$999999,395,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D24" s="78" t="e">
+      <c r="D24" s="68" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$999999,396,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="E24" s="79"/>
-      <c r="F24" s="79"/>
-      <c r="G24" s="79"/>
+      <c r="E24" s="69"/>
+      <c r="F24" s="69"/>
+      <c r="G24" s="69"/>
       <c r="H24" s="3" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$999999,400,FALSE)</f>
         <v>#N/A</v>
@@ -58880,13 +58895,13 @@
         <f>VLOOKUP(A1,Data!$A$1:$DZU$999999,412,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D25" s="78" t="e">
+      <c r="D25" s="68" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$999999,413,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="E25" s="79"/>
-      <c r="F25" s="79"/>
-      <c r="G25" s="79"/>
+      <c r="E25" s="69"/>
+      <c r="F25" s="69"/>
+      <c r="G25" s="69"/>
       <c r="H25" s="3" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$999999,417,FALSE)</f>
         <v>#N/A</v>
@@ -59139,7 +59154,7 @@
       </c>
     </row>
     <row r="29" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="90" t="e">
+      <c r="A29" s="73" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$999999,478,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -59276,13 +59291,13 @@
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A31" s="91" t="e">
+      <c r="A31" s="75" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$999999,512,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="B31" s="91"/>
-      <c r="C31" s="91"/>
-      <c r="D31" s="91"/>
+      <c r="B31" s="75"/>
+      <c r="C31" s="75"/>
+      <c r="D31" s="75"/>
       <c r="E31" s="3" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$999999,516,FALSE)</f>
         <v>#N/A</v>
@@ -59337,13 +59352,13 @@
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A32" s="91" t="e">
+      <c r="A32" s="75" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$999999,529,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="B32" s="91"/>
-      <c r="C32" s="91"/>
-      <c r="D32" s="91"/>
+      <c r="B32" s="75"/>
+      <c r="C32" s="75"/>
+      <c r="D32" s="75"/>
       <c r="E32" s="3" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$999999,533,FALSE)</f>
         <v>#N/A</v>
@@ -59398,13 +59413,13 @@
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A33" s="91" t="e">
+      <c r="A33" s="75" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$999999,546,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="B33" s="91"/>
-      <c r="C33" s="91"/>
-      <c r="D33" s="91"/>
+      <c r="B33" s="75"/>
+      <c r="C33" s="75"/>
+      <c r="D33" s="75"/>
       <c r="E33" s="3" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$999999,550,FALSE)</f>
         <v>#N/A</v>
@@ -59459,13 +59474,13 @@
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A34" s="91" t="e">
+      <c r="A34" s="75" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$999999,563,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="B34" s="91"/>
-      <c r="C34" s="91"/>
-      <c r="D34" s="91"/>
+      <c r="B34" s="75"/>
+      <c r="C34" s="75"/>
+      <c r="D34" s="75"/>
       <c r="E34" s="3" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$999999,567,FALSE)</f>
         <v>#N/A</v>
@@ -59520,13 +59535,13 @@
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A35" s="91" t="e">
+      <c r="A35" s="75" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$999999,580,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="B35" s="91"/>
-      <c r="C35" s="91"/>
-      <c r="D35" s="91"/>
+      <c r="B35" s="75"/>
+      <c r="C35" s="75"/>
+      <c r="D35" s="75"/>
       <c r="E35" s="3" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$999999,584,FALSE)</f>
         <v>#N/A</v>
@@ -59581,13 +59596,13 @@
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A36" s="91" t="e">
+      <c r="A36" s="75" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$999999,597,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="B36" s="91"/>
-      <c r="C36" s="91"/>
-      <c r="D36" s="91"/>
+      <c r="B36" s="75"/>
+      <c r="C36" s="75"/>
+      <c r="D36" s="75"/>
       <c r="E36" s="3" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$999999,601,FALSE)</f>
         <v>#N/A</v>
@@ -59642,13 +59657,13 @@
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A37" s="91" t="e">
+      <c r="A37" s="75" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$999999,614,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="B37" s="91"/>
-      <c r="C37" s="91"/>
-      <c r="D37" s="91"/>
+      <c r="B37" s="75"/>
+      <c r="C37" s="75"/>
+      <c r="D37" s="75"/>
       <c r="E37" s="3" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$999999,618,FALSE)</f>
         <v>#N/A</v>
@@ -59703,13 +59718,13 @@
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A38" s="91" t="e">
+      <c r="A38" s="75" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$999999,631,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="B38" s="91"/>
-      <c r="C38" s="91"/>
-      <c r="D38" s="91"/>
+      <c r="B38" s="75"/>
+      <c r="C38" s="75"/>
+      <c r="D38" s="75"/>
       <c r="E38" s="3" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$999999,635,FALSE)</f>
         <v>#N/A</v>
@@ -59764,13 +59779,13 @@
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A39" s="91" t="e">
+      <c r="A39" s="75" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$999999,648,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="B39" s="91"/>
-      <c r="C39" s="91"/>
-      <c r="D39" s="91"/>
+      <c r="B39" s="75"/>
+      <c r="C39" s="75"/>
+      <c r="D39" s="75"/>
       <c r="E39" s="3" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$999999,652,FALSE)</f>
         <v>#N/A</v>
@@ -59825,13 +59840,13 @@
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A40" s="91" t="e">
+      <c r="A40" s="75" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$999999,665,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="B40" s="91"/>
-      <c r="C40" s="91"/>
-      <c r="D40" s="91"/>
+      <c r="B40" s="75"/>
+      <c r="C40" s="75"/>
+      <c r="D40" s="75"/>
       <c r="E40" s="3" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$999999,669,FALSE)</f>
         <v>#N/A</v>
@@ -60026,11 +60041,11 @@
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A43" s="80" t="e">
+      <c r="A43" s="72" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$999999,716,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="B43" s="79"/>
+      <c r="B43" s="69"/>
       <c r="C43" s="3" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$999999,718,FALSE)</f>
         <v>#N/A</v>
@@ -60163,14 +60178,14 @@
       </c>
     </row>
     <row r="45" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="78" t="e">
+      <c r="A45" s="68" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$999999,750,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="B45" s="79"/>
-      <c r="C45" s="79"/>
-      <c r="D45" s="79"/>
-      <c r="E45" s="92" t="e">
+      <c r="B45" s="69"/>
+      <c r="C45" s="69"/>
+      <c r="D45" s="69"/>
+      <c r="E45" s="70" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$999999,754,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -60215,13 +60230,13 @@
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A46" s="80" t="e">
+      <c r="A46" s="72" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$999999,767,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="B46" s="79"/>
-      <c r="C46" s="79"/>
-      <c r="D46" s="79"/>
+      <c r="B46" s="69"/>
+      <c r="C46" s="69"/>
+      <c r="D46" s="69"/>
       <c r="E46" s="3" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$999999,771,FALSE)</f>
         <v>#N/A</v>
@@ -60280,7 +60295,7 @@
         <f>VLOOKUP(A1,Data!$A$1:$DZU$999999,784,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="B47" s="90" t="e">
+      <c r="B47" s="73" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$999999,785,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -60290,12 +60305,12 @@
         <f>VLOOKUP(A1,Data!$A$1:$DZU$999999,788,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F47" s="93" t="e">
+      <c r="F47" s="74" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$999999,789,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="G47" s="90"/>
-      <c r="H47" s="90"/>
+      <c r="G47" s="73"/>
+      <c r="H47" s="73"/>
       <c r="I47" s="3" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$999999,792,FALSE)</f>
         <v>#N/A</v>
@@ -71045,6 +71060,34 @@
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="B2:L2"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="A13:H15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="A21:H21"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="D24:G24"/>
     <mergeCell ref="B1:L1"/>
     <mergeCell ref="A45:D45"/>
     <mergeCell ref="E45:H45"/>
@@ -71061,34 +71104,6 @@
     <mergeCell ref="A36:D36"/>
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="D25:G25"/>
-    <mergeCell ref="A12:H12"/>
-    <mergeCell ref="A13:H15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="A21:H21"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="B2:L2"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:G7"/>
   </mergeCells>
   <dataValidations count="5">
     <dataValidation allowBlank="1" showErrorMessage="1" sqref="H49 A31:D40 F31:F40 C9:D9 C11:D11" xr:uid="{9C453E87-9CC2-475C-AF93-93E19B31FE5C}"/>
@@ -71141,20 +71156,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="23" x14ac:dyDescent="0.5">
-      <c r="A1" s="95" t="s">
+      <c r="A1" s="96" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="95" t="s">
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="96" t="s">
         <v>84</v>
       </c>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
     </row>
     <row r="2" spans="1:15" ht="16" x14ac:dyDescent="0.4">
       <c r="A2" s="60"/>
@@ -71172,23 +71187,23 @@
       <c r="A3" s="63" t="s">
         <v>85</v>
       </c>
-      <c r="B3" s="97" t="str">
+      <c r="B3" s="98" t="str">
         <f>Contacts!F5</f>
         <v xml:space="preserve"> Project Name</v>
       </c>
-      <c r="C3" s="98"/>
-      <c r="D3" s="99"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="101"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="102"/>
       <c r="G3" s="64" t="s">
         <v>86</v>
       </c>
-      <c r="H3" s="102" t="str">
+      <c r="H3" s="103" t="str">
         <f>Contacts!F6</f>
         <v xml:space="preserve"> A/E / Developer</v>
       </c>
-      <c r="I3" s="102"/>
-      <c r="J3" s="102"/>
+      <c r="I3" s="103"/>
+      <c r="J3" s="103"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" s="65"/>
@@ -71208,7 +71223,7 @@
       </c>
       <c r="B5" s="66">
         <f ca="1">TODAY()</f>
-        <v>45621</v>
+        <v>45640</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>

--- a/scco.xlsx
+++ b/scco.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dnort\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ffed9c0cf3f584e6/Documents/DataMate/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B56D2829-9FBE-43CD-B963-26500C905088}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8B051C78-948A-4403-8E4E-814CFD07B968}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="27580" windowHeight="17740" activeTab="2" xr2:uid="{F56262E1-0845-4689-AC3F-E446E4ED5BBD}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="27580" windowHeight="17740" activeTab="1" xr2:uid="{F56262E1-0845-4689-AC3F-E446E4ED5BBD}"/>
   </bookViews>
   <sheets>
     <sheet name="Contacts" sheetId="2" r:id="rId1"/>
-    <sheet name="Input (2)" sheetId="9" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="9" r:id="rId2"/>
     <sheet name="Input" sheetId="4" r:id="rId3"/>
     <sheet name="View_Print" sheetId="5" r:id="rId4"/>
     <sheet name="Log" sheetId="6" r:id="rId5"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="88">
   <si>
     <t>Subcontract Change Order</t>
   </si>
@@ -1028,36 +1028,18 @@
     <xf numFmtId="164" fontId="10" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -1082,18 +1064,36 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -53949,10 +53949,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2828AF02-C46E-46BC-BFF4-85695C08A7EA}">
-  <dimension ref="A1:Q200"/>
+  <dimension ref="A1:Q198"/>
   <sheetViews>
-    <sheetView showZeros="0" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:E7"/>
+    <sheetView showZeros="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -53967,140 +53967,73 @@
     <col min="8" max="8" width="10.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A1" s="18" t="str">
-        <f>A10</f>
-        <v>Change Order Number:</v>
-      </c>
-      <c r="B1" s="19" t="str">
-        <f>F7</f>
-        <v>Owner's Change Order No.</v>
-      </c>
-      <c r="C1" s="19" t="str">
-        <f>E9</f>
-        <v>Subcontractor:</v>
-      </c>
-      <c r="D1" s="19" t="str">
-        <f>A9</f>
-        <v>Subcontract Number:</v>
-      </c>
-      <c r="E1" s="19" t="str">
-        <f>B16</f>
-        <v>Previous Contract</v>
-      </c>
-      <c r="F1" s="19" t="str">
-        <f>D16</f>
-        <v>Increase</v>
-      </c>
-      <c r="G1" s="19" t="str">
-        <f>E16</f>
-        <v>Decrease</v>
-      </c>
-      <c r="H1" s="19" t="str">
-        <f>F16</f>
-        <v>Net Change</v>
-      </c>
-      <c r="I1" s="19" t="str">
-        <f>G16</f>
-        <v>Revised Contract</v>
-      </c>
-      <c r="J1" s="19" t="str">
-        <f>G49</f>
-        <v>Date:</v>
-      </c>
-      <c r="K1" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="L1" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="M1" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="N1" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="O1" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="P1" s="48"/>
-      <c r="Q1" s="48"/>
+    <row r="1" spans="1:17" ht="20" x14ac:dyDescent="0.4">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="52"/>
+      <c r="Q1" s="53"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A2" s="21">
-        <f>C10</f>
-        <v>0</v>
-      </c>
-      <c r="B2" s="22">
-        <f>H7</f>
-        <v>0</v>
-      </c>
-      <c r="C2" s="22" t="str">
-        <f>F9</f>
-        <v>Example Subcontractor</v>
-      </c>
-      <c r="D2" s="22">
-        <f>C9</f>
-        <v>0</v>
-      </c>
-      <c r="E2" s="22">
-        <f>B19</f>
-        <v>0</v>
-      </c>
-      <c r="F2" s="22">
-        <f>D19</f>
-        <v>0</v>
-      </c>
-      <c r="G2" s="22">
-        <f>E19</f>
-        <v>0</v>
-      </c>
-      <c r="H2" s="22">
-        <f>F19</f>
-        <v>0</v>
-      </c>
-      <c r="I2" s="22">
-        <f>G19</f>
-        <v>0</v>
-      </c>
-      <c r="J2" s="22">
-        <f>H49</f>
-        <v>0</v>
-      </c>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="23"/>
-      <c r="P2" s="48"/>
-      <c r="Q2" s="48"/>
-    </row>
-    <row r="3" spans="1:17" ht="20" x14ac:dyDescent="0.4">
-      <c r="A3" s="1"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="69" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="52"/>
-      <c r="Q3" s="53"/>
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="Q2" s="5"/>
+    </row>
+    <row r="3" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="93" t="str">
+        <f>Contacts!F5</f>
+        <v xml:space="preserve"> Project Name</v>
+      </c>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="Q3" s="5"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
-      <c r="D4" s="4"/>
+      <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -54116,18 +54049,20 @@
     </row>
     <row r="5" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="71" t="str">
-        <f>Contacts!F5</f>
-        <v xml:space="preserve"> Project Name</v>
+        <v>2</v>
+      </c>
+      <c r="B5" s="93" t="str">
+        <f>Contacts!F7</f>
+        <v xml:space="preserve"> Owner</v>
       </c>
       <c r="C5" s="72"/>
       <c r="D5" s="72"/>
       <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="72"/>
+      <c r="F5" s="86" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="87"/>
+      <c r="H5" s="6"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
@@ -54155,22 +54090,21 @@
       <c r="O6" s="3"/>
       <c r="Q6" s="5"/>
     </row>
-    <row r="7" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="71" t="str">
-        <f>Contacts!F7</f>
-        <v xml:space="preserve"> Owner</v>
-      </c>
-      <c r="C7" s="72"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="73" t="s">
-        <v>3</v>
-      </c>
-      <c r="G7" s="74"/>
-      <c r="H7" s="6"/>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A7" s="86" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="87"/>
+      <c r="C7" s="88"/>
+      <c r="D7" s="88"/>
+      <c r="E7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="94" t="s">
+        <v>73</v>
+      </c>
+      <c r="G7" s="94"/>
+      <c r="H7" s="94"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
@@ -54181,14 +54115,19 @@
       <c r="Q7" s="5"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
+      <c r="A8" s="86" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="87"/>
+      <c r="C8" s="88"/>
+      <c r="D8" s="88"/>
       <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
+      <c r="F8" s="89" t="str">
+        <f>VLOOKUP(F7,Contacts!C3:R2001,10,FALSE)</f>
+        <v>PO Box 976</v>
+      </c>
+      <c r="G8" s="89"/>
+      <c r="H8" s="89"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
@@ -54199,20 +54138,19 @@
       <c r="Q8" s="5"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A9" s="73" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="74"/>
-      <c r="C9" s="75"/>
-      <c r="D9" s="75"/>
-      <c r="E9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F9" s="76" t="s">
-        <v>73</v>
-      </c>
-      <c r="G9" s="76"/>
-      <c r="H9" s="76"/>
+      <c r="A9" s="86" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="87"/>
+      <c r="C9" s="88"/>
+      <c r="D9" s="88"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="89" t="str">
+        <f>VLOOKUP(F7,Contacts!C3:R2001, 11, FALSE) &amp; ", " &amp; VLOOKUP(F7,Contacts!C3:R2001, 12, FALSE) &amp; " " &amp; VLOOKUP(F7,Contacts!C3:R2001, 13, FALSE)</f>
+        <v>Springfield, IL 62523</v>
+      </c>
+      <c r="G9" s="90"/>
+      <c r="H9" s="90"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
@@ -54223,19 +54161,14 @@
       <c r="Q9" s="5"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A10" s="73" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="74"/>
-      <c r="C10" s="75"/>
-      <c r="D10" s="75"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="77" t="str">
-        <f>VLOOKUP(F9,Contacts!C3:R2001,10,FALSE)</f>
-        <v>PO Box 976</v>
-      </c>
-      <c r="G10" s="77"/>
-      <c r="H10" s="77"/>
+      <c r="A10" s="73"/>
+      <c r="B10" s="70"/>
+      <c r="C10" s="70"/>
+      <c r="D10" s="70"/>
+      <c r="E10" s="70"/>
+      <c r="F10" s="70"/>
+      <c r="G10" s="70"/>
+      <c r="H10" s="70"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
@@ -54245,20 +54178,17 @@
       <c r="O10" s="3"/>
       <c r="Q10" s="5"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A11" s="73" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="74"/>
-      <c r="C11" s="75"/>
-      <c r="D11" s="75"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="77" t="str">
-        <f>VLOOKUP(F9,Contacts!C3:R2001, 11, FALSE) &amp; ", " &amp; VLOOKUP(F9,Contacts!C3:R2001, 12, FALSE) &amp; " " &amp; VLOOKUP(F9,Contacts!C3:R2001, 13, FALSE)</f>
-        <v>Springfield, IL 62523</v>
-      </c>
-      <c r="G11" s="78"/>
-      <c r="H11" s="78"/>
+    <row r="11" spans="1:17" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="77" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="77"/>
+      <c r="C11" s="77"/>
+      <c r="D11" s="77"/>
+      <c r="E11" s="77"/>
+      <c r="F11" s="77"/>
+      <c r="G11" s="77"/>
+      <c r="H11" s="77"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
@@ -54269,14 +54199,14 @@
       <c r="Q11" s="5"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A12" s="81"/>
-      <c r="B12" s="80"/>
-      <c r="C12" s="80"/>
-      <c r="D12" s="80"/>
-      <c r="E12" s="80"/>
-      <c r="F12" s="80"/>
-      <c r="G12" s="80"/>
-      <c r="H12" s="80"/>
+      <c r="A12" s="77"/>
+      <c r="B12" s="77"/>
+      <c r="C12" s="77"/>
+      <c r="D12" s="77"/>
+      <c r="E12" s="77"/>
+      <c r="F12" s="77"/>
+      <c r="G12" s="77"/>
+      <c r="H12" s="77"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
@@ -54286,17 +54216,15 @@
       <c r="O12" s="3"/>
       <c r="Q12" s="5"/>
     </row>
-    <row r="13" spans="1:17" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="82" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="82"/>
-      <c r="C13" s="82"/>
-      <c r="D13" s="82"/>
-      <c r="E13" s="82"/>
-      <c r="F13" s="82"/>
-      <c r="G13" s="82"/>
-      <c r="H13" s="82"/>
+    <row r="13" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="77"/>
+      <c r="B13" s="77"/>
+      <c r="C13" s="77"/>
+      <c r="D13" s="77"/>
+      <c r="E13" s="77"/>
+      <c r="F13" s="77"/>
+      <c r="G13" s="77"/>
+      <c r="H13" s="77"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
@@ -54307,14 +54235,24 @@
       <c r="Q13" s="5"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A14" s="82"/>
-      <c r="B14" s="82"/>
-      <c r="C14" s="82"/>
-      <c r="D14" s="82"/>
-      <c r="E14" s="82"/>
-      <c r="F14" s="82"/>
-      <c r="G14" s="82"/>
-      <c r="H14" s="82"/>
+      <c r="A14" s="3"/>
+      <c r="B14" s="78" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="79"/>
+      <c r="D14" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="78" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" s="79"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
@@ -54325,14 +54263,18 @@
       <c r="Q14" s="5"/>
     </row>
     <row r="15" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="82"/>
-      <c r="B15" s="82"/>
-      <c r="C15" s="82"/>
-      <c r="D15" s="82"/>
-      <c r="E15" s="82"/>
-      <c r="F15" s="82"/>
-      <c r="G15" s="82"/>
-      <c r="H15" s="82"/>
+      <c r="A15" s="3"/>
+      <c r="B15" s="80" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="81"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="80" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" s="81"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
@@ -54342,25 +54284,15 @@
       <c r="O15" s="3"/>
       <c r="Q15" s="5"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="3"/>
-      <c r="B16" s="83" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="84"/>
-      <c r="D16" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" s="83" t="s">
-        <v>13</v>
-      </c>
-      <c r="H16" s="84"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
@@ -54372,17 +54304,25 @@
     </row>
     <row r="17" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="3"/>
-      <c r="B17" s="85" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="86"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="85" t="s">
-        <v>14</v>
-      </c>
-      <c r="H17" s="86"/>
+      <c r="B17" s="82"/>
+      <c r="C17" s="83"/>
+      <c r="D17" s="10">
+        <f>SUM(F39)</f>
+        <v>0</v>
+      </c>
+      <c r="E17" s="11">
+        <f>SUM(G39)</f>
+        <v>0</v>
+      </c>
+      <c r="F17" s="11">
+        <f>SUM(D17:E17)</f>
+        <v>0</v>
+      </c>
+      <c r="G17" s="84">
+        <f>SUM(B17+F17)</f>
+        <v>0</v>
+      </c>
+      <c r="H17" s="85"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
@@ -54392,7 +54332,7 @@
       <c r="O17" s="3"/>
       <c r="Q17" s="5"/>
     </row>
-    <row r="18" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -54410,27 +54350,17 @@
       <c r="O18" s="3"/>
       <c r="Q18" s="5"/>
     </row>
-    <row r="19" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="3"/>
-      <c r="B19" s="87"/>
-      <c r="C19" s="88"/>
-      <c r="D19" s="10">
-        <f>SUM(F41)</f>
-        <v>0</v>
-      </c>
-      <c r="E19" s="11">
-        <f>SUM(G41)</f>
-        <v>0</v>
-      </c>
-      <c r="F19" s="11">
-        <f>SUM(D19:E19)</f>
-        <v>0</v>
-      </c>
-      <c r="G19" s="89">
-        <f>SUM(B19+F19)</f>
-        <v>0</v>
-      </c>
-      <c r="H19" s="90"/>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A19" s="86" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="86"/>
+      <c r="C19" s="86"/>
+      <c r="D19" s="86"/>
+      <c r="E19" s="86"/>
+      <c r="F19" s="86"/>
+      <c r="G19" s="86"/>
+      <c r="H19" s="86"/>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
@@ -54459,16 +54389,17 @@
       <c r="Q20" s="5"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A21" s="73" t="s">
-        <v>15</v>
-      </c>
-      <c r="B21" s="73"/>
-      <c r="C21" s="73"/>
-      <c r="D21" s="73"/>
-      <c r="E21" s="73"/>
-      <c r="F21" s="73"/>
-      <c r="G21" s="73"/>
-      <c r="H21" s="73"/>
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="69" t="str">
+        <f>Contacts!F4</f>
+        <v>Your Company Name</v>
+      </c>
+      <c r="E21" s="70"/>
+      <c r="F21" s="70"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="3"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
@@ -54482,10 +54413,13 @@
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
+      <c r="D22" s="69" t="str">
+        <f>VLOOKUP(D21,Contacts!C3:R2001,10,FALSE)</f>
+        <v>1234 Construction Lane</v>
+      </c>
+      <c r="E22" s="70"/>
+      <c r="F22" s="70"/>
+      <c r="G22" s="70"/>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
@@ -54500,13 +54434,13 @@
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
-      <c r="D23" s="79" t="str">
-        <f>Contacts!F4</f>
-        <v>Your Company Name</v>
-      </c>
-      <c r="E23" s="80"/>
-      <c r="F23" s="80"/>
-      <c r="G23" s="4"/>
+      <c r="D23" s="69" t="str">
+        <f>VLOOKUP(D21,Contacts!C3:R2001, 11, FALSE) &amp; ", " &amp; VLOOKUP(D21,Contacts!C3:R2001, 12, FALSE) &amp; " " &amp; VLOOKUP(D21,Contacts!C3:R2001, 13, FALSE)</f>
+        <v>Springfield, IL 62523</v>
+      </c>
+      <c r="E23" s="70"/>
+      <c r="F23" s="70"/>
+      <c r="G23" s="70"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
@@ -54521,13 +54455,10 @@
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
-      <c r="D24" s="79" t="str">
-        <f>VLOOKUP(D23,Contacts!C3:R2001,10,FALSE)</f>
-        <v>1234 Construction Lane</v>
-      </c>
-      <c r="E24" s="80"/>
-      <c r="F24" s="80"/>
-      <c r="G24" s="80"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
@@ -54539,17 +54470,14 @@
       <c r="Q24" s="5"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="79" t="str">
-        <f>VLOOKUP(D23,Contacts!C3:R2001, 11, FALSE) &amp; ", " &amp; VLOOKUP(D23,Contacts!C3:R2001, 12, FALSE) &amp; " " &amp; VLOOKUP(D23,Contacts!C3:R2001, 13, FALSE)</f>
-        <v>Springfield, IL 62523</v>
-      </c>
-      <c r="E25" s="80"/>
-      <c r="F25" s="80"/>
-      <c r="G25" s="80"/>
-      <c r="H25" s="3"/>
+      <c r="A25" s="12"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
@@ -54559,7 +54487,7 @@
       <c r="O25" s="3"/>
       <c r="Q25" s="5"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -54577,15 +54505,21 @@
       <c r="O26" s="3"/>
       <c r="Q26" s="5"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A27" s="12"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
+    <row r="27" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="74" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" s="72"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G27" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H27" s="3"/>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
@@ -54595,7 +54529,7 @@
       <c r="O27" s="3"/>
       <c r="Q27" s="5"/>
     </row>
-    <row r="28" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -54613,20 +54547,14 @@
       <c r="O28" s="3"/>
       <c r="Q28" s="5"/>
     </row>
-    <row r="29" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="91" t="s">
-        <v>16</v>
-      </c>
-      <c r="B29" s="72"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A29" s="76"/>
+      <c r="B29" s="76"/>
+      <c r="C29" s="76"/>
+      <c r="D29" s="76"/>
       <c r="E29" s="3"/>
-      <c r="F29" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="G29" s="14" t="s">
-        <v>18</v>
-      </c>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
@@ -54638,13 +54566,13 @@
       <c r="Q29" s="5"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
+      <c r="A30" s="76"/>
+      <c r="B30" s="76"/>
+      <c r="C30" s="76"/>
+      <c r="D30" s="76"/>
       <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
@@ -54656,10 +54584,10 @@
       <c r="Q30" s="5"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A31" s="92"/>
-      <c r="B31" s="92"/>
-      <c r="C31" s="92"/>
-      <c r="D31" s="92"/>
+      <c r="A31" s="76"/>
+      <c r="B31" s="76"/>
+      <c r="C31" s="76"/>
+      <c r="D31" s="76"/>
       <c r="E31" s="3"/>
       <c r="F31" s="15"/>
       <c r="G31" s="15"/>
@@ -54674,10 +54602,10 @@
       <c r="Q31" s="5"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A32" s="92"/>
-      <c r="B32" s="92"/>
-      <c r="C32" s="92"/>
-      <c r="D32" s="92"/>
+      <c r="A32" s="76"/>
+      <c r="B32" s="76"/>
+      <c r="C32" s="76"/>
+      <c r="D32" s="76"/>
       <c r="E32" s="3"/>
       <c r="F32" s="15"/>
       <c r="G32" s="15"/>
@@ -54692,10 +54620,10 @@
       <c r="Q32" s="5"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A33" s="92"/>
-      <c r="B33" s="92"/>
-      <c r="C33" s="92"/>
-      <c r="D33" s="92"/>
+      <c r="A33" s="76"/>
+      <c r="B33" s="76"/>
+      <c r="C33" s="76"/>
+      <c r="D33" s="76"/>
       <c r="E33" s="3"/>
       <c r="F33" s="15"/>
       <c r="G33" s="15"/>
@@ -54710,10 +54638,10 @@
       <c r="Q33" s="5"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A34" s="92"/>
-      <c r="B34" s="92"/>
-      <c r="C34" s="92"/>
-      <c r="D34" s="92"/>
+      <c r="A34" s="76"/>
+      <c r="B34" s="76"/>
+      <c r="C34" s="76"/>
+      <c r="D34" s="76"/>
       <c r="E34" s="3"/>
       <c r="F34" s="15"/>
       <c r="G34" s="15"/>
@@ -54728,10 +54656,10 @@
       <c r="Q34" s="5"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A35" s="92"/>
-      <c r="B35" s="92"/>
-      <c r="C35" s="92"/>
-      <c r="D35" s="92"/>
+      <c r="A35" s="76"/>
+      <c r="B35" s="76"/>
+      <c r="C35" s="76"/>
+      <c r="D35" s="76"/>
       <c r="E35" s="3"/>
       <c r="F35" s="15"/>
       <c r="G35" s="15"/>
@@ -54746,10 +54674,10 @@
       <c r="Q35" s="5"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A36" s="92"/>
-      <c r="B36" s="92"/>
-      <c r="C36" s="92"/>
-      <c r="D36" s="92"/>
+      <c r="A36" s="76"/>
+      <c r="B36" s="76"/>
+      <c r="C36" s="76"/>
+      <c r="D36" s="76"/>
       <c r="E36" s="3"/>
       <c r="F36" s="15"/>
       <c r="G36" s="15"/>
@@ -54764,10 +54692,10 @@
       <c r="Q36" s="5"/>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A37" s="92"/>
-      <c r="B37" s="92"/>
-      <c r="C37" s="92"/>
-      <c r="D37" s="92"/>
+      <c r="A37" s="76"/>
+      <c r="B37" s="76"/>
+      <c r="C37" s="76"/>
+      <c r="D37" s="76"/>
       <c r="E37" s="3"/>
       <c r="F37" s="15"/>
       <c r="G37" s="15"/>
@@ -54782,10 +54710,10 @@
       <c r="Q37" s="5"/>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A38" s="92"/>
-      <c r="B38" s="92"/>
-      <c r="C38" s="92"/>
-      <c r="D38" s="92"/>
+      <c r="A38" s="76"/>
+      <c r="B38" s="76"/>
+      <c r="C38" s="76"/>
+      <c r="D38" s="76"/>
       <c r="E38" s="3"/>
       <c r="F38" s="15"/>
       <c r="G38" s="15"/>
@@ -54799,14 +54727,22 @@
       <c r="O38" s="3"/>
       <c r="Q38" s="5"/>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A39" s="92"/>
-      <c r="B39" s="92"/>
-      <c r="C39" s="92"/>
-      <c r="D39" s="92"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="15"/>
-      <c r="G39" s="15"/>
+    <row r="39" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F39" s="9">
+        <f>SUM(F29:F38)</f>
+        <v>0</v>
+      </c>
+      <c r="G39" s="9">
+        <f>SUM(G29:G38)</f>
+        <v>0</v>
+      </c>
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
@@ -54818,13 +54754,13 @@
       <c r="Q39" s="5"/>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A40" s="92"/>
-      <c r="B40" s="92"/>
-      <c r="C40" s="92"/>
-      <c r="D40" s="92"/>
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
       <c r="E40" s="3"/>
-      <c r="F40" s="15"/>
-      <c r="G40" s="15"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
@@ -54835,22 +54771,18 @@
       <c r="O40" s="3"/>
       <c r="Q40" s="5"/>
     </row>
-    <row r="41" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="3"/>
-      <c r="B41" s="3"/>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A41" s="73" t="s">
+        <v>20</v>
+      </c>
+      <c r="B41" s="70"/>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F41" s="9">
-        <f>SUM(F31:F40)</f>
-        <v>0</v>
-      </c>
-      <c r="G41" s="9">
-        <f>SUM(G31:G40)</f>
-        <v>0</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
@@ -54879,19 +54811,20 @@
       <c r="O42" s="3"/>
       <c r="Q42" s="5"/>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A43" s="81" t="s">
-        <v>20</v>
-      </c>
-      <c r="B43" s="80"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
+    <row r="43" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="69" t="str">
+        <f>F7</f>
+        <v>Example Subcontractor</v>
+      </c>
+      <c r="B43" s="70"/>
+      <c r="C43" s="70"/>
+      <c r="D43" s="70"/>
+      <c r="E43" s="71" t="s">
+        <v>22</v>
+      </c>
+      <c r="F43" s="72"/>
+      <c r="G43" s="72"/>
+      <c r="H43" s="72"/>
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
       <c r="K43" s="3"/>
@@ -54902,10 +54835,12 @@
       <c r="Q43" s="5"/>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A44" s="3"/>
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
+      <c r="A44" s="73" t="s">
+        <v>23</v>
+      </c>
+      <c r="B44" s="70"/>
+      <c r="C44" s="70"/>
+      <c r="D44" s="70"/>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
@@ -54919,20 +54854,21 @@
       <c r="O44" s="3"/>
       <c r="Q44" s="5"/>
     </row>
-    <row r="45" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="79" t="str">
-        <f>F9</f>
-        <v>Example Subcontractor</v>
-      </c>
-      <c r="B45" s="80"/>
-      <c r="C45" s="80"/>
-      <c r="D45" s="80"/>
-      <c r="E45" s="93" t="s">
-        <v>22</v>
-      </c>
-      <c r="F45" s="72"/>
-      <c r="G45" s="72"/>
-      <c r="H45" s="72"/>
+    <row r="45" spans="1:17" ht="21.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B45" s="74"/>
+      <c r="C45" s="72"/>
+      <c r="D45" s="72"/>
+      <c r="E45" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F45" s="75" t="s">
+        <v>25</v>
+      </c>
+      <c r="G45" s="74"/>
+      <c r="H45" s="74"/>
       <c r="I45" s="3"/>
       <c r="J45" s="3"/>
       <c r="K45" s="3"/>
@@ -54943,12 +54879,10 @@
       <c r="Q45" s="5"/>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A46" s="81" t="s">
-        <v>23</v>
-      </c>
-      <c r="B46" s="80"/>
-      <c r="C46" s="80"/>
-      <c r="D46" s="80"/>
+      <c r="A46" s="3"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
@@ -54962,21 +54896,23 @@
       <c r="O46" s="3"/>
       <c r="Q46" s="5"/>
     </row>
-    <row r="47" spans="1:17" ht="21.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A47" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B47" s="91"/>
-      <c r="C47" s="72"/>
-      <c r="D47" s="72"/>
-      <c r="E47" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="F47" s="94" t="s">
-        <v>25</v>
-      </c>
-      <c r="G47" s="91"/>
-      <c r="H47" s="91"/>
+        <v>26</v>
+      </c>
+      <c r="B47" s="13"/>
+      <c r="C47" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D47" s="13"/>
+      <c r="E47" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F47" s="13"/>
+      <c r="G47" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="H47" s="15"/>
       <c r="I47" s="3"/>
       <c r="J47" s="3"/>
       <c r="K47" s="3"/>
@@ -55004,48 +54940,12 @@
       <c r="O48" s="3"/>
       <c r="Q48" s="5"/>
     </row>
-    <row r="49" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="B49" s="13"/>
-      <c r="C49" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D49" s="13"/>
-      <c r="E49" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="F49" s="13"/>
-      <c r="G49" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="H49" s="15"/>
-      <c r="I49" s="3"/>
-      <c r="J49" s="3"/>
-      <c r="K49" s="3"/>
-      <c r="L49" s="3"/>
-      <c r="M49" s="3"/>
-      <c r="N49" s="3"/>
-      <c r="O49" s="3"/>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A49" s="54"/>
       <c r="Q49" s="5"/>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A50" s="3"/>
-      <c r="B50" s="3"/>
-      <c r="C50" s="3"/>
-      <c r="D50" s="3"/>
-      <c r="E50" s="3"/>
-      <c r="F50" s="3"/>
-      <c r="G50" s="3"/>
-      <c r="H50" s="3"/>
-      <c r="I50" s="3"/>
-      <c r="J50" s="3"/>
-      <c r="K50" s="3"/>
-      <c r="L50" s="3"/>
-      <c r="M50" s="3"/>
-      <c r="N50" s="3"/>
-      <c r="O50" s="3"/>
+      <c r="A50" s="54"/>
       <c r="Q50" s="5"/>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.35">
@@ -55637,41 +55537,55 @@
       <c r="Q197" s="5"/>
     </row>
     <row r="198" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A198" s="54"/>
-      <c r="Q198" s="5"/>
-    </row>
-    <row r="199" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A199" s="54"/>
-      <c r="Q199" s="5"/>
-    </row>
-    <row r="200" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A200" s="49"/>
-      <c r="B200" s="50"/>
-      <c r="C200" s="50"/>
-      <c r="D200" s="50"/>
-      <c r="E200" s="50"/>
-      <c r="F200" s="50"/>
-      <c r="G200" s="50"/>
-      <c r="H200" s="50"/>
-      <c r="I200" s="50"/>
-      <c r="J200" s="50"/>
-      <c r="K200" s="50"/>
-      <c r="L200" s="50"/>
-      <c r="M200" s="50"/>
-      <c r="N200" s="50"/>
-      <c r="O200" s="50"/>
-      <c r="P200" s="50"/>
-      <c r="Q200" s="51"/>
+      <c r="A198" s="49"/>
+      <c r="B198" s="50"/>
+      <c r="C198" s="50"/>
+      <c r="D198" s="50"/>
+      <c r="E198" s="50"/>
+      <c r="F198" s="50"/>
+      <c r="G198" s="50"/>
+      <c r="H198" s="50"/>
+      <c r="I198" s="50"/>
+      <c r="J198" s="50"/>
+      <c r="K198" s="50"/>
+      <c r="L198" s="50"/>
+      <c r="M198" s="50"/>
+      <c r="N198" s="50"/>
+      <c r="O198" s="50"/>
+      <c r="P198" s="50"/>
+      <c r="Q198" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="E45:H45"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="F47:H47"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="A10:H10"/>
+    <mergeCell ref="A11:H13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="A19:H19"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A30:D30"/>
     <mergeCell ref="A31:D31"/>
     <mergeCell ref="A32:D32"/>
     <mergeCell ref="A33:D33"/>
@@ -55680,40 +55594,18 @@
     <mergeCell ref="A36:D36"/>
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="D25:G25"/>
-    <mergeCell ref="A12:H12"/>
-    <mergeCell ref="A13:H15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="A21:H21"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="E43:H43"/>
+    <mergeCell ref="A44:D44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="F45:H45"/>
   </mergeCells>
   <dataValidations count="5">
-    <dataValidation allowBlank="1" showErrorMessage="1" sqref="H49 A31:D40 F31:F40 C9:D9 C11:D11" xr:uid="{22CC2D08-D6A2-4BBD-AF11-90F5F6B0C39B}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a new Subcontractor Change Order Number." sqref="C10:D10" xr:uid="{9F2258F9-5C4F-4DC5-BF19-6A6184EB50AC}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter previous contract amount." sqref="B19:C19" xr:uid="{E49D34B7-C1DE-4E01-9F7F-C8E3C453AB8D}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This cell must contain a negative number (-100)" sqref="F31:G31 G32:G40" xr:uid="{A3E522BB-64A7-41F9-BE8C-5511D64EAA17}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Owner Change Order Number." sqref="H7" xr:uid="{AF9FB751-D275-40EF-A694-BEEE5409B4DB}"/>
+    <dataValidation allowBlank="1" showErrorMessage="1" sqref="H47 A29:D38 F29:F38 C7:D7 C9:D9" xr:uid="{22CC2D08-D6A2-4BBD-AF11-90F5F6B0C39B}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a new Subcontractor Change Order Number." sqref="C8:D8" xr:uid="{9F2258F9-5C4F-4DC5-BF19-6A6184EB50AC}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter previous contract amount." sqref="B17:C17" xr:uid="{E49D34B7-C1DE-4E01-9F7F-C8E3C453AB8D}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This cell must contain a negative number (-100)" sqref="F29:G29 G30:G38" xr:uid="{A3E522BB-64A7-41F9-BE8C-5511D64EAA17}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Owner Change Order Number." sqref="H5" xr:uid="{AF9FB751-D275-40EF-A694-BEEE5409B4DB}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -55723,7 +55615,7 @@
           <x14:formula1>
             <xm:f>Contacts!$F$2:$F$2000</xm:f>
           </x14:formula1>
-          <xm:sqref>F9:H9</xm:sqref>
+          <xm:sqref>F7:H7</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -55735,7 +55627,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90EEBE3D-F77F-4CAA-877E-E131B9B6D687}">
   <dimension ref="A1:Q200"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" workbookViewId="0">
+    <sheetView showZeros="0" workbookViewId="0">
       <selection activeCell="C10" sqref="C10:D10"/>
     </sheetView>
   </sheetViews>
@@ -55862,12 +55754,12 @@
     <row r="3" spans="1:17" ht="20" x14ac:dyDescent="0.4">
       <c r="A3" s="1"/>
       <c r="B3" s="2"/>
-      <c r="C3" s="69" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="70"/>
+      <c r="C3" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="92"/>
+      <c r="E3" s="92"/>
+      <c r="F3" s="92"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="24"/>
@@ -55902,7 +55794,7 @@
       <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="71" t="str">
+      <c r="B5" s="93" t="str">
         <f>Contacts!F5</f>
         <v xml:space="preserve"> Project Name</v>
       </c>
@@ -55943,17 +55835,17 @@
       <c r="A7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="71" t="str">
+      <c r="B7" s="93" t="str">
         <f>Contacts!F7</f>
         <v xml:space="preserve"> Owner</v>
       </c>
       <c r="C7" s="72"/>
       <c r="D7" s="72"/>
       <c r="E7" s="72"/>
-      <c r="F7" s="73" t="s">
+      <c r="F7" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="74"/>
+      <c r="G7" s="87"/>
       <c r="H7" s="6"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
@@ -55983,20 +55875,20 @@
       <c r="Q8" s="5"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A9" s="73" t="s">
+      <c r="A9" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="74"/>
-      <c r="C9" s="75"/>
-      <c r="D9" s="75"/>
+      <c r="B9" s="87"/>
+      <c r="C9" s="88"/>
+      <c r="D9" s="88"/>
       <c r="E9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="76" t="s">
+      <c r="F9" s="94" t="s">
         <v>73</v>
       </c>
-      <c r="G9" s="76"/>
-      <c r="H9" s="76"/>
+      <c r="G9" s="94"/>
+      <c r="H9" s="94"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
@@ -56007,19 +55899,19 @@
       <c r="Q9" s="5"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A10" s="73" t="s">
+      <c r="A10" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="74"/>
-      <c r="C10" s="75"/>
-      <c r="D10" s="75"/>
+      <c r="B10" s="87"/>
+      <c r="C10" s="88"/>
+      <c r="D10" s="88"/>
       <c r="E10" s="3"/>
-      <c r="F10" s="77" t="str">
+      <c r="F10" s="89" t="str">
         <f>VLOOKUP(F9,Contacts!C3:R2001,10,FALSE)</f>
         <v>PO Box 976</v>
       </c>
-      <c r="G10" s="77"/>
-      <c r="H10" s="77"/>
+      <c r="G10" s="89"/>
+      <c r="H10" s="89"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
@@ -56030,19 +55922,19 @@
       <c r="Q10" s="5"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A11" s="73" t="s">
+      <c r="A11" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="74"/>
-      <c r="C11" s="75"/>
-      <c r="D11" s="75"/>
+      <c r="B11" s="87"/>
+      <c r="C11" s="88"/>
+      <c r="D11" s="88"/>
       <c r="E11" s="3"/>
-      <c r="F11" s="77" t="str">
+      <c r="F11" s="89" t="str">
         <f>VLOOKUP(F9,Contacts!C3:R2001, 11, FALSE) &amp; ", " &amp; VLOOKUP(F9,Contacts!C3:R2001, 12, FALSE) &amp; " " &amp; VLOOKUP(F9,Contacts!C3:R2001, 13, FALSE)</f>
         <v>Springfield, IL 62523</v>
       </c>
-      <c r="G11" s="78"/>
-      <c r="H11" s="78"/>
+      <c r="G11" s="90"/>
+      <c r="H11" s="90"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
@@ -56053,14 +55945,14 @@
       <c r="Q11" s="5"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A12" s="81"/>
-      <c r="B12" s="80"/>
-      <c r="C12" s="80"/>
-      <c r="D12" s="80"/>
-      <c r="E12" s="80"/>
-      <c r="F12" s="80"/>
-      <c r="G12" s="80"/>
-      <c r="H12" s="80"/>
+      <c r="A12" s="73"/>
+      <c r="B12" s="70"/>
+      <c r="C12" s="70"/>
+      <c r="D12" s="70"/>
+      <c r="E12" s="70"/>
+      <c r="F12" s="70"/>
+      <c r="G12" s="70"/>
+      <c r="H12" s="70"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
@@ -56071,16 +55963,16 @@
       <c r="Q12" s="5"/>
     </row>
     <row r="13" spans="1:17" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="82" t="s">
+      <c r="A13" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="82"/>
-      <c r="C13" s="82"/>
-      <c r="D13" s="82"/>
-      <c r="E13" s="82"/>
-      <c r="F13" s="82"/>
-      <c r="G13" s="82"/>
-      <c r="H13" s="82"/>
+      <c r="B13" s="77"/>
+      <c r="C13" s="77"/>
+      <c r="D13" s="77"/>
+      <c r="E13" s="77"/>
+      <c r="F13" s="77"/>
+      <c r="G13" s="77"/>
+      <c r="H13" s="77"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
@@ -56091,14 +55983,14 @@
       <c r="Q13" s="5"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A14" s="82"/>
-      <c r="B14" s="82"/>
-      <c r="C14" s="82"/>
-      <c r="D14" s="82"/>
-      <c r="E14" s="82"/>
-      <c r="F14" s="82"/>
-      <c r="G14" s="82"/>
-      <c r="H14" s="82"/>
+      <c r="A14" s="77"/>
+      <c r="B14" s="77"/>
+      <c r="C14" s="77"/>
+      <c r="D14" s="77"/>
+      <c r="E14" s="77"/>
+      <c r="F14" s="77"/>
+      <c r="G14" s="77"/>
+      <c r="H14" s="77"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
@@ -56109,14 +56001,14 @@
       <c r="Q14" s="5"/>
     </row>
     <row r="15" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="82"/>
-      <c r="B15" s="82"/>
-      <c r="C15" s="82"/>
-      <c r="D15" s="82"/>
-      <c r="E15" s="82"/>
-      <c r="F15" s="82"/>
-      <c r="G15" s="82"/>
-      <c r="H15" s="82"/>
+      <c r="A15" s="77"/>
+      <c r="B15" s="77"/>
+      <c r="C15" s="77"/>
+      <c r="D15" s="77"/>
+      <c r="E15" s="77"/>
+      <c r="F15" s="77"/>
+      <c r="G15" s="77"/>
+      <c r="H15" s="77"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
@@ -56128,10 +56020,10 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16" s="3"/>
-      <c r="B16" s="83" t="s">
+      <c r="B16" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="84"/>
+      <c r="C16" s="79"/>
       <c r="D16" s="8" t="s">
         <v>10</v>
       </c>
@@ -56141,10 +56033,10 @@
       <c r="F16" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G16" s="83" t="s">
+      <c r="G16" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="H16" s="84"/>
+      <c r="H16" s="79"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
@@ -56156,17 +56048,17 @@
     </row>
     <row r="17" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="3"/>
-      <c r="B17" s="85" t="s">
+      <c r="B17" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="86"/>
+      <c r="C17" s="81"/>
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
-      <c r="G17" s="85" t="s">
+      <c r="G17" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="H17" s="86"/>
+      <c r="H17" s="81"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
@@ -56196,8 +56088,8 @@
     </row>
     <row r="19" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="3"/>
-      <c r="B19" s="87"/>
-      <c r="C19" s="88"/>
+      <c r="B19" s="82"/>
+      <c r="C19" s="83"/>
       <c r="D19" s="10">
         <f>SUM(F41)</f>
         <v>0</v>
@@ -56210,11 +56102,11 @@
         <f>SUM(D19:E19)</f>
         <v>0</v>
       </c>
-      <c r="G19" s="89">
+      <c r="G19" s="84">
         <f>SUM(B19+F19)</f>
         <v>0</v>
       </c>
-      <c r="H19" s="90"/>
+      <c r="H19" s="85"/>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
@@ -56243,16 +56135,16 @@
       <c r="Q20" s="5"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A21" s="73" t="s">
+      <c r="A21" s="86" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="73"/>
-      <c r="C21" s="73"/>
-      <c r="D21" s="73"/>
-      <c r="E21" s="73"/>
-      <c r="F21" s="73"/>
-      <c r="G21" s="73"/>
-      <c r="H21" s="73"/>
+      <c r="B21" s="86"/>
+      <c r="C21" s="86"/>
+      <c r="D21" s="86"/>
+      <c r="E21" s="86"/>
+      <c r="F21" s="86"/>
+      <c r="G21" s="86"/>
+      <c r="H21" s="86"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
@@ -56284,12 +56176,12 @@
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
-      <c r="D23" s="79" t="str">
+      <c r="D23" s="69" t="str">
         <f>Contacts!F4</f>
         <v>Your Company Name</v>
       </c>
-      <c r="E23" s="80"/>
-      <c r="F23" s="80"/>
+      <c r="E23" s="70"/>
+      <c r="F23" s="70"/>
       <c r="G23" s="4"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
@@ -56305,13 +56197,13 @@
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
-      <c r="D24" s="79" t="str">
+      <c r="D24" s="69" t="str">
         <f>VLOOKUP(D23,Contacts!C3:R2001,10,FALSE)</f>
         <v>1234 Construction Lane</v>
       </c>
-      <c r="E24" s="80"/>
-      <c r="F24" s="80"/>
-      <c r="G24" s="80"/>
+      <c r="E24" s="70"/>
+      <c r="F24" s="70"/>
+      <c r="G24" s="70"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
@@ -56326,13 +56218,13 @@
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
-      <c r="D25" s="79" t="str">
+      <c r="D25" s="69" t="str">
         <f>VLOOKUP(D23,Contacts!C3:R2001, 11, FALSE) &amp; ", " &amp; VLOOKUP(D23,Contacts!C3:R2001, 12, FALSE) &amp; " " &amp; VLOOKUP(D23,Contacts!C3:R2001, 13, FALSE)</f>
         <v>Springfield, IL 62523</v>
       </c>
-      <c r="E25" s="80"/>
-      <c r="F25" s="80"/>
-      <c r="G25" s="80"/>
+      <c r="E25" s="70"/>
+      <c r="F25" s="70"/>
+      <c r="G25" s="70"/>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
@@ -56398,7 +56290,7 @@
       <c r="Q28" s="5"/>
     </row>
     <row r="29" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="91" t="s">
+      <c r="A29" s="74" t="s">
         <v>16</v>
       </c>
       <c r="B29" s="72"/>
@@ -56440,10 +56332,10 @@
       <c r="Q30" s="5"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A31" s="92"/>
-      <c r="B31" s="92"/>
-      <c r="C31" s="92"/>
-      <c r="D31" s="92"/>
+      <c r="A31" s="76"/>
+      <c r="B31" s="76"/>
+      <c r="C31" s="76"/>
+      <c r="D31" s="76"/>
       <c r="E31" s="3"/>
       <c r="F31" s="15"/>
       <c r="G31" s="15"/>
@@ -56458,10 +56350,10 @@
       <c r="Q31" s="5"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A32" s="92"/>
-      <c r="B32" s="92"/>
-      <c r="C32" s="92"/>
-      <c r="D32" s="92"/>
+      <c r="A32" s="76"/>
+      <c r="B32" s="76"/>
+      <c r="C32" s="76"/>
+      <c r="D32" s="76"/>
       <c r="E32" s="3"/>
       <c r="F32" s="15"/>
       <c r="G32" s="15"/>
@@ -56476,10 +56368,10 @@
       <c r="Q32" s="5"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A33" s="92"/>
-      <c r="B33" s="92"/>
-      <c r="C33" s="92"/>
-      <c r="D33" s="92"/>
+      <c r="A33" s="76"/>
+      <c r="B33" s="76"/>
+      <c r="C33" s="76"/>
+      <c r="D33" s="76"/>
       <c r="E33" s="3"/>
       <c r="F33" s="15"/>
       <c r="G33" s="15"/>
@@ -56494,10 +56386,10 @@
       <c r="Q33" s="5"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A34" s="92"/>
-      <c r="B34" s="92"/>
-      <c r="C34" s="92"/>
-      <c r="D34" s="92"/>
+      <c r="A34" s="76"/>
+      <c r="B34" s="76"/>
+      <c r="C34" s="76"/>
+      <c r="D34" s="76"/>
       <c r="E34" s="3"/>
       <c r="F34" s="15"/>
       <c r="G34" s="15"/>
@@ -56512,10 +56404,10 @@
       <c r="Q34" s="5"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A35" s="92"/>
-      <c r="B35" s="92"/>
-      <c r="C35" s="92"/>
-      <c r="D35" s="92"/>
+      <c r="A35" s="76"/>
+      <c r="B35" s="76"/>
+      <c r="C35" s="76"/>
+      <c r="D35" s="76"/>
       <c r="E35" s="3"/>
       <c r="F35" s="15"/>
       <c r="G35" s="15"/>
@@ -56530,10 +56422,10 @@
       <c r="Q35" s="5"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A36" s="92"/>
-      <c r="B36" s="92"/>
-      <c r="C36" s="92"/>
-      <c r="D36" s="92"/>
+      <c r="A36" s="76"/>
+      <c r="B36" s="76"/>
+      <c r="C36" s="76"/>
+      <c r="D36" s="76"/>
       <c r="E36" s="3"/>
       <c r="F36" s="15"/>
       <c r="G36" s="15"/>
@@ -56548,10 +56440,10 @@
       <c r="Q36" s="5"/>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A37" s="92"/>
-      <c r="B37" s="92"/>
-      <c r="C37" s="92"/>
-      <c r="D37" s="92"/>
+      <c r="A37" s="76"/>
+      <c r="B37" s="76"/>
+      <c r="C37" s="76"/>
+      <c r="D37" s="76"/>
       <c r="E37" s="3"/>
       <c r="F37" s="15"/>
       <c r="G37" s="15"/>
@@ -56566,10 +56458,10 @@
       <c r="Q37" s="5"/>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A38" s="92"/>
-      <c r="B38" s="92"/>
-      <c r="C38" s="92"/>
-      <c r="D38" s="92"/>
+      <c r="A38" s="76"/>
+      <c r="B38" s="76"/>
+      <c r="C38" s="76"/>
+      <c r="D38" s="76"/>
       <c r="E38" s="3"/>
       <c r="F38" s="15"/>
       <c r="G38" s="15"/>
@@ -56584,10 +56476,10 @@
       <c r="Q38" s="5"/>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A39" s="92"/>
-      <c r="B39" s="92"/>
-      <c r="C39" s="92"/>
-      <c r="D39" s="92"/>
+      <c r="A39" s="76"/>
+      <c r="B39" s="76"/>
+      <c r="C39" s="76"/>
+      <c r="D39" s="76"/>
       <c r="E39" s="3"/>
       <c r="F39" s="15"/>
       <c r="G39" s="15"/>
@@ -56602,10 +56494,10 @@
       <c r="Q39" s="5"/>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A40" s="92"/>
-      <c r="B40" s="92"/>
-      <c r="C40" s="92"/>
-      <c r="D40" s="92"/>
+      <c r="A40" s="76"/>
+      <c r="B40" s="76"/>
+      <c r="C40" s="76"/>
+      <c r="D40" s="76"/>
       <c r="E40" s="3"/>
       <c r="F40" s="15"/>
       <c r="G40" s="15"/>
@@ -56664,10 +56556,10 @@
       <c r="Q42" s="5"/>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A43" s="81" t="s">
+      <c r="A43" s="73" t="s">
         <v>20</v>
       </c>
-      <c r="B43" s="80"/>
+      <c r="B43" s="70"/>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3" t="s">
@@ -56704,14 +56596,14 @@
       <c r="Q44" s="5"/>
     </row>
     <row r="45" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="79" t="str">
+      <c r="A45" s="69" t="str">
         <f>F9</f>
         <v>Example Subcontractor</v>
       </c>
-      <c r="B45" s="80"/>
-      <c r="C45" s="80"/>
-      <c r="D45" s="80"/>
-      <c r="E45" s="93" t="s">
+      <c r="B45" s="70"/>
+      <c r="C45" s="70"/>
+      <c r="D45" s="70"/>
+      <c r="E45" s="71" t="s">
         <v>22</v>
       </c>
       <c r="F45" s="72"/>
@@ -56727,12 +56619,12 @@
       <c r="Q45" s="5"/>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A46" s="81" t="s">
+      <c r="A46" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="B46" s="80"/>
-      <c r="C46" s="80"/>
-      <c r="D46" s="80"/>
+      <c r="B46" s="70"/>
+      <c r="C46" s="70"/>
+      <c r="D46" s="70"/>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
@@ -56750,17 +56642,17 @@
       <c r="A47" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B47" s="91"/>
+      <c r="B47" s="74"/>
       <c r="C47" s="72"/>
       <c r="D47" s="72"/>
       <c r="E47" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="F47" s="94" t="s">
+      <c r="F47" s="75" t="s">
         <v>25</v>
       </c>
-      <c r="G47" s="91"/>
-      <c r="H47" s="91"/>
+      <c r="G47" s="74"/>
+      <c r="H47" s="74"/>
       <c r="I47" s="3"/>
       <c r="J47" s="3"/>
       <c r="K47" s="3"/>
@@ -57449,11 +57341,31 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="E45:H45"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="F47:H47"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="A13:H15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="A21:H21"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="D24:G24"/>
     <mergeCell ref="A43:B43"/>
     <mergeCell ref="A29:B29"/>
     <mergeCell ref="A31:D31"/>
@@ -57466,31 +57378,11 @@
     <mergeCell ref="A38:D38"/>
     <mergeCell ref="A39:D39"/>
     <mergeCell ref="A40:D40"/>
-    <mergeCell ref="D25:G25"/>
-    <mergeCell ref="A12:H12"/>
-    <mergeCell ref="A13:H15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="A21:H21"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="E45:H45"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="F47:H47"/>
   </mergeCells>
   <dataValidations count="5">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Owner Change Order Number." sqref="H7" xr:uid="{1FB645DA-E8D8-47CB-9B9F-272B7A06D8B1}"/>
@@ -57540,20 +57432,20 @@
         <f>View_Print!B2</f>
         <v>0</v>
       </c>
-      <c r="B1" s="96" t="str">
+      <c r="B1" s="95" t="str">
         <f>HYPERLINK("https://datamateapp.github.io/Donate%205%20per%20mo.html", "All Apps are free of charge with no ads. Please support DataMateApp and help us grow!")</f>
         <v>All Apps are free of charge with no ads. Please support DataMateApp and help us grow!</v>
       </c>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
       <c r="M1" s="48" t="str">
         <f>Input!M1</f>
         <v>Update 1</v>
@@ -57571,17 +57463,17 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="48"/>
-      <c r="B2" s="95"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="95"/>
-      <c r="G2" s="95"/>
-      <c r="H2" s="95"/>
-      <c r="I2" s="95"/>
-      <c r="J2" s="95"/>
-      <c r="K2" s="95"/>
-      <c r="L2" s="95"/>
+      <c r="B2" s="96"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="96"/>
+      <c r="K2" s="96"/>
+      <c r="L2" s="96"/>
       <c r="M2" t="e">
         <f>VLOOKUP(A1,Update!$A$1:$P$1000000,2,FALSE)</f>
         <v>#N/A</v>
@@ -57606,13 +57498,13 @@
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,37,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="C3" s="69" t="e">
+      <c r="C3" s="91" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,38,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="70"/>
+      <c r="D3" s="92"/>
+      <c r="E3" s="92"/>
+      <c r="F3" s="92"/>
       <c r="G3" s="3" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,42,FALSE)</f>
         <v>#N/A</v>
@@ -57733,7 +57625,7 @@
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,70,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="B5" s="71" t="e">
+      <c r="B5" s="93" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,71,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -57855,18 +57747,18 @@
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,104,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="B7" s="71" t="e">
+      <c r="B7" s="93" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,105,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="C7" s="72"/>
       <c r="D7" s="72"/>
       <c r="E7" s="72"/>
-      <c r="F7" s="73" t="e">
+      <c r="F7" s="86" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,109,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="G7" s="74"/>
+      <c r="G7" s="87"/>
       <c r="H7" s="6" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,111,FALSE)</f>
         <v>#N/A</v>
@@ -57979,26 +57871,26 @@
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A9" s="73" t="e">
+      <c r="A9" s="86" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,138,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="B9" s="74"/>
-      <c r="C9" s="75" t="e">
+      <c r="B9" s="87"/>
+      <c r="C9" s="88" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,140,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D9" s="75"/>
+      <c r="D9" s="88"/>
       <c r="E9" s="3" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,142,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F9" s="76" t="e">
+      <c r="F9" s="94" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,143,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="G9" s="76"/>
-      <c r="H9" s="76"/>
+      <c r="G9" s="94"/>
+      <c r="H9" s="94"/>
       <c r="I9" s="3" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,146,FALSE)</f>
         <v>#N/A</v>
@@ -58037,26 +57929,26 @@
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A10" s="73" t="e">
+      <c r="A10" s="86" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,155,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="B10" s="74"/>
-      <c r="C10" s="75" t="e">
+      <c r="B10" s="87"/>
+      <c r="C10" s="88" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,157,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D10" s="75"/>
+      <c r="D10" s="88"/>
       <c r="E10" s="3" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,159,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F10" s="77" t="e">
+      <c r="F10" s="89" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,160,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="G10" s="77"/>
-      <c r="H10" s="77"/>
+      <c r="G10" s="89"/>
+      <c r="H10" s="89"/>
       <c r="I10" s="3" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,163,FALSE)</f>
         <v>#N/A</v>
@@ -58095,26 +57987,26 @@
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A11" s="73" t="e">
+      <c r="A11" s="86" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,172,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="B11" s="74"/>
-      <c r="C11" s="75" t="e">
+      <c r="B11" s="87"/>
+      <c r="C11" s="88" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,174,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D11" s="75"/>
+      <c r="D11" s="88"/>
       <c r="E11" s="3" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,176,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F11" s="77" t="e">
+      <c r="F11" s="89" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,177,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="G11" s="78"/>
-      <c r="H11" s="78"/>
+      <c r="G11" s="90"/>
+      <c r="H11" s="90"/>
       <c r="I11" s="3" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,180,FALSE)</f>
         <v>#N/A</v>
@@ -58153,17 +58045,17 @@
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A12" s="81" t="e">
+      <c r="A12" s="73" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,189,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="B12" s="80"/>
-      <c r="C12" s="80"/>
-      <c r="D12" s="80"/>
-      <c r="E12" s="80"/>
-      <c r="F12" s="80"/>
-      <c r="G12" s="80"/>
-      <c r="H12" s="80"/>
+      <c r="B12" s="70"/>
+      <c r="C12" s="70"/>
+      <c r="D12" s="70"/>
+      <c r="E12" s="70"/>
+      <c r="F12" s="70"/>
+      <c r="G12" s="70"/>
+      <c r="H12" s="70"/>
       <c r="I12" s="3" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,197,FALSE)</f>
         <v>#N/A</v>
@@ -58202,17 +58094,17 @@
       </c>
     </row>
     <row r="13" spans="1:17" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="82" t="e">
+      <c r="A13" s="77" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,206,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="B13" s="82"/>
-      <c r="C13" s="82"/>
-      <c r="D13" s="82"/>
-      <c r="E13" s="82"/>
-      <c r="F13" s="82"/>
-      <c r="G13" s="82"/>
-      <c r="H13" s="82"/>
+      <c r="B13" s="77"/>
+      <c r="C13" s="77"/>
+      <c r="D13" s="77"/>
+      <c r="E13" s="77"/>
+      <c r="F13" s="77"/>
+      <c r="G13" s="77"/>
+      <c r="H13" s="77"/>
       <c r="I13" s="3" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,214,FALSE)</f>
         <v>#N/A</v>
@@ -58251,14 +58143,14 @@
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A14" s="82"/>
-      <c r="B14" s="82"/>
-      <c r="C14" s="82"/>
-      <c r="D14" s="82"/>
-      <c r="E14" s="82"/>
-      <c r="F14" s="82"/>
-      <c r="G14" s="82"/>
-      <c r="H14" s="82"/>
+      <c r="A14" s="77"/>
+      <c r="B14" s="77"/>
+      <c r="C14" s="77"/>
+      <c r="D14" s="77"/>
+      <c r="E14" s="77"/>
+      <c r="F14" s="77"/>
+      <c r="G14" s="77"/>
+      <c r="H14" s="77"/>
       <c r="I14" s="3" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,231,FALSE)</f>
         <v>#N/A</v>
@@ -58297,14 +58189,14 @@
       </c>
     </row>
     <row r="15" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="82"/>
-      <c r="B15" s="82"/>
-      <c r="C15" s="82"/>
-      <c r="D15" s="82"/>
-      <c r="E15" s="82"/>
-      <c r="F15" s="82"/>
-      <c r="G15" s="82"/>
-      <c r="H15" s="82"/>
+      <c r="A15" s="77"/>
+      <c r="B15" s="77"/>
+      <c r="C15" s="77"/>
+      <c r="D15" s="77"/>
+      <c r="E15" s="77"/>
+      <c r="F15" s="77"/>
+      <c r="G15" s="77"/>
+      <c r="H15" s="77"/>
       <c r="I15" s="3" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,248,FALSE)</f>
         <v>#N/A</v>
@@ -58347,11 +58239,11 @@
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,257,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="B16" s="83" t="e">
+      <c r="B16" s="78" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,258,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="C16" s="84"/>
+      <c r="C16" s="79"/>
       <c r="D16" s="8" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,260,FALSE)</f>
         <v>#N/A</v>
@@ -58364,11 +58256,11 @@
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,262,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="G16" s="83" t="e">
+      <c r="G16" s="78" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,263,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="H16" s="84"/>
+      <c r="H16" s="79"/>
       <c r="I16" s="3" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,265,FALSE)</f>
         <v>#N/A</v>
@@ -58411,11 +58303,11 @@
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,274,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="B17" s="85" t="e">
+      <c r="B17" s="80" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,275,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="C17" s="86"/>
+      <c r="C17" s="81"/>
       <c r="D17" s="9" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,277,FALSE)</f>
         <v>#N/A</v>
@@ -58428,11 +58320,11 @@
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,279,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="G17" s="85" t="e">
+      <c r="G17" s="80" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,280,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="H17" s="86"/>
+      <c r="H17" s="81"/>
       <c r="I17" s="3" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,282,FALSE)</f>
         <v>#N/A</v>
@@ -58545,11 +58437,11 @@
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,308,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="B19" s="87" t="e">
+      <c r="B19" s="82" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,309,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="C19" s="88"/>
+      <c r="C19" s="83"/>
       <c r="D19" s="10" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,311,FALSE)</f>
         <v>#N/A</v>
@@ -58562,11 +58454,11 @@
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,313,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="G19" s="89" t="e">
+      <c r="G19" s="84" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,314,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="H19" s="90"/>
+      <c r="H19" s="85"/>
       <c r="I19" s="3" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,316,FALSE)</f>
         <v>#N/A</v>
@@ -58675,17 +58567,17 @@
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A21" s="73" t="e">
+      <c r="A21" s="86" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,342,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="B21" s="73"/>
-      <c r="C21" s="73"/>
-      <c r="D21" s="73"/>
-      <c r="E21" s="73"/>
-      <c r="F21" s="73"/>
-      <c r="G21" s="73"/>
-      <c r="H21" s="73"/>
+      <c r="B21" s="86"/>
+      <c r="C21" s="86"/>
+      <c r="D21" s="86"/>
+      <c r="E21" s="86"/>
+      <c r="F21" s="86"/>
+      <c r="G21" s="86"/>
+      <c r="H21" s="86"/>
       <c r="I21" s="3" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,350,FALSE)</f>
         <v>#N/A</v>
@@ -58806,12 +58698,12 @@
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,378,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D23" s="79" t="e">
+      <c r="D23" s="69" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,379,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="E23" s="80"/>
-      <c r="F23" s="80"/>
+      <c r="E23" s="70"/>
+      <c r="F23" s="70"/>
       <c r="G23" s="4" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,382,FALSE)</f>
         <v>#N/A</v>
@@ -58870,13 +58762,13 @@
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,395,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D24" s="79" t="e">
+      <c r="D24" s="69" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,396,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="E24" s="80"/>
-      <c r="F24" s="80"/>
-      <c r="G24" s="80"/>
+      <c r="E24" s="70"/>
+      <c r="F24" s="70"/>
+      <c r="G24" s="70"/>
       <c r="H24" s="3" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,400,FALSE)</f>
         <v>#N/A</v>
@@ -58931,13 +58823,13 @@
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,412,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D25" s="79" t="e">
+      <c r="D25" s="69" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,413,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="E25" s="80"/>
-      <c r="F25" s="80"/>
-      <c r="G25" s="80"/>
+      <c r="E25" s="70"/>
+      <c r="F25" s="70"/>
+      <c r="G25" s="70"/>
       <c r="H25" s="3" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,417,FALSE)</f>
         <v>#N/A</v>
@@ -59190,7 +59082,7 @@
       </c>
     </row>
     <row r="29" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="91" t="e">
+      <c r="A29" s="74" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,478,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -59327,13 +59219,13 @@
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A31" s="92" t="e">
+      <c r="A31" s="76" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,512,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="B31" s="92"/>
-      <c r="C31" s="92"/>
-      <c r="D31" s="92"/>
+      <c r="B31" s="76"/>
+      <c r="C31" s="76"/>
+      <c r="D31" s="76"/>
       <c r="E31" s="3" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,516,FALSE)</f>
         <v>#N/A</v>
@@ -59388,13 +59280,13 @@
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A32" s="92" t="e">
+      <c r="A32" s="76" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,529,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="B32" s="92"/>
-      <c r="C32" s="92"/>
-      <c r="D32" s="92"/>
+      <c r="B32" s="76"/>
+      <c r="C32" s="76"/>
+      <c r="D32" s="76"/>
       <c r="E32" s="3" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,533,FALSE)</f>
         <v>#N/A</v>
@@ -59449,13 +59341,13 @@
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A33" s="92" t="e">
+      <c r="A33" s="76" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,546,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="B33" s="92"/>
-      <c r="C33" s="92"/>
-      <c r="D33" s="92"/>
+      <c r="B33" s="76"/>
+      <c r="C33" s="76"/>
+      <c r="D33" s="76"/>
       <c r="E33" s="3" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,550,FALSE)</f>
         <v>#N/A</v>
@@ -59510,13 +59402,13 @@
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A34" s="92" t="e">
+      <c r="A34" s="76" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,563,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="B34" s="92"/>
-      <c r="C34" s="92"/>
-      <c r="D34" s="92"/>
+      <c r="B34" s="76"/>
+      <c r="C34" s="76"/>
+      <c r="D34" s="76"/>
       <c r="E34" s="3" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,567,FALSE)</f>
         <v>#N/A</v>
@@ -59571,13 +59463,13 @@
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A35" s="92" t="e">
+      <c r="A35" s="76" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,580,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="B35" s="92"/>
-      <c r="C35" s="92"/>
-      <c r="D35" s="92"/>
+      <c r="B35" s="76"/>
+      <c r="C35" s="76"/>
+      <c r="D35" s="76"/>
       <c r="E35" s="3" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,584,FALSE)</f>
         <v>#N/A</v>
@@ -59632,13 +59524,13 @@
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A36" s="92" t="e">
+      <c r="A36" s="76" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,597,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="B36" s="92"/>
-      <c r="C36" s="92"/>
-      <c r="D36" s="92"/>
+      <c r="B36" s="76"/>
+      <c r="C36" s="76"/>
+      <c r="D36" s="76"/>
       <c r="E36" s="3" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,601,FALSE)</f>
         <v>#N/A</v>
@@ -59693,13 +59585,13 @@
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A37" s="92" t="e">
+      <c r="A37" s="76" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,614,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="B37" s="92"/>
-      <c r="C37" s="92"/>
-      <c r="D37" s="92"/>
+      <c r="B37" s="76"/>
+      <c r="C37" s="76"/>
+      <c r="D37" s="76"/>
       <c r="E37" s="3" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,618,FALSE)</f>
         <v>#N/A</v>
@@ -59754,13 +59646,13 @@
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A38" s="92" t="e">
+      <c r="A38" s="76" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,631,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="B38" s="92"/>
-      <c r="C38" s="92"/>
-      <c r="D38" s="92"/>
+      <c r="B38" s="76"/>
+      <c r="C38" s="76"/>
+      <c r="D38" s="76"/>
       <c r="E38" s="3" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,635,FALSE)</f>
         <v>#N/A</v>
@@ -59815,13 +59707,13 @@
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A39" s="92" t="e">
+      <c r="A39" s="76" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,648,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="B39" s="92"/>
-      <c r="C39" s="92"/>
-      <c r="D39" s="92"/>
+      <c r="B39" s="76"/>
+      <c r="C39" s="76"/>
+      <c r="D39" s="76"/>
       <c r="E39" s="3" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,652,FALSE)</f>
         <v>#N/A</v>
@@ -59876,13 +59768,13 @@
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A40" s="92" t="e">
+      <c r="A40" s="76" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,665,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="B40" s="92"/>
-      <c r="C40" s="92"/>
-      <c r="D40" s="92"/>
+      <c r="B40" s="76"/>
+      <c r="C40" s="76"/>
+      <c r="D40" s="76"/>
       <c r="E40" s="3" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,669,FALSE)</f>
         <v>#N/A</v>
@@ -60077,11 +59969,11 @@
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A43" s="81" t="e">
+      <c r="A43" s="73" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,716,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="B43" s="80"/>
+      <c r="B43" s="70"/>
       <c r="C43" s="3" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,718,FALSE)</f>
         <v>#N/A</v>
@@ -60214,14 +60106,14 @@
       </c>
     </row>
     <row r="45" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="79" t="e">
+      <c r="A45" s="69" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,750,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="B45" s="80"/>
-      <c r="C45" s="80"/>
-      <c r="D45" s="80"/>
-      <c r="E45" s="93" t="e">
+      <c r="B45" s="70"/>
+      <c r="C45" s="70"/>
+      <c r="D45" s="70"/>
+      <c r="E45" s="71" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,754,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -60266,13 +60158,13 @@
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A46" s="81" t="e">
+      <c r="A46" s="73" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,767,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="B46" s="80"/>
-      <c r="C46" s="80"/>
-      <c r="D46" s="80"/>
+      <c r="B46" s="70"/>
+      <c r="C46" s="70"/>
+      <c r="D46" s="70"/>
       <c r="E46" s="3" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,771,FALSE)</f>
         <v>#N/A</v>
@@ -60331,7 +60223,7 @@
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,784,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="B47" s="91" t="e">
+      <c r="B47" s="74" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,785,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -60341,12 +60233,12 @@
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,788,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F47" s="94" t="e">
+      <c r="F47" s="75" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,789,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="G47" s="91"/>
-      <c r="H47" s="91"/>
+      <c r="G47" s="74"/>
+      <c r="H47" s="74"/>
       <c r="I47" s="3" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,792,FALSE)</f>
         <v>#N/A</v>
@@ -71096,6 +70988,34 @@
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="B2:L2"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="A13:H15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="A21:H21"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="D24:G24"/>
     <mergeCell ref="B1:L1"/>
     <mergeCell ref="A45:D45"/>
     <mergeCell ref="E45:H45"/>
@@ -71112,34 +71032,6 @@
     <mergeCell ref="A36:D36"/>
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="D25:G25"/>
-    <mergeCell ref="A12:H12"/>
-    <mergeCell ref="A13:H15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="A21:H21"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="B2:L2"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:G7"/>
   </mergeCells>
   <dataValidations count="5">
     <dataValidation allowBlank="1" showErrorMessage="1" sqref="H49 A31:D40 F31:F40 C9:D9 C11:D11" xr:uid="{9C453E87-9CC2-475C-AF93-93E19B31FE5C}"/>
@@ -71195,10 +71087,10 @@
       <c r="A1" s="97" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
       <c r="F1" s="97" t="s">
         <v>84</v>
       </c>
@@ -71259,7 +71151,7 @@
       </c>
       <c r="B5" s="66">
         <f ca="1">TODAY()</f>
-        <v>45640</v>
+        <v>45656</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>

--- a/scco.xlsx
+++ b/scco.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ffed9c0cf3f584e6/Documents/DataMate/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8B051C78-948A-4403-8E4E-814CFD07B968}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C704C2F-966B-4CB7-978C-DEFE657B1320}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="27580" windowHeight="17740" activeTab="1" xr2:uid="{F56262E1-0845-4689-AC3F-E446E4ED5BBD}"/>
   </bookViews>
@@ -911,7 +911,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1028,18 +1028,36 @@
     <xf numFmtId="164" fontId="10" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -1064,36 +1082,18 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1118,6 +1118,8 @@
     <xf numFmtId="164" fontId="24" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -53949,10 +53951,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2828AF02-C46E-46BC-BFF4-85695C08A7EA}">
-  <dimension ref="A1:Q198"/>
+  <dimension ref="A2:Q200"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
+      <selection activeCell="B5" sqref="B5:H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -53967,73 +53969,43 @@
     <col min="8" max="8" width="10.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="20" x14ac:dyDescent="0.4">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="53"/>
-    </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="Q2" s="5"/>
-    </row>
-    <row r="3" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="93" t="str">
-        <f>Contacts!F5</f>
-        <v xml:space="preserve"> Project Name</v>
-      </c>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
+      <c r="I2" s="106"/>
+      <c r="J2" s="106"/>
+      <c r="K2" s="106"/>
+      <c r="L2" s="106"/>
+      <c r="M2" s="106"/>
+      <c r="N2" s="106"/>
+      <c r="O2" s="106"/>
+      <c r="P2" s="106"/>
+      <c r="Q2" s="106"/>
+    </row>
+    <row r="3" spans="1:17" ht="20" x14ac:dyDescent="0.4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="69" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="105"/>
+      <c r="J3" s="105"/>
+      <c r="K3" s="105"/>
+      <c r="L3" s="105"/>
+      <c r="M3" s="105"/>
+      <c r="N3" s="105"/>
+      <c r="O3" s="105"/>
+      <c r="P3" s="106"/>
       <c r="Q3" s="5"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
+      <c r="D4" s="4"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -54049,20 +54021,18 @@
     </row>
     <row r="5" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="93" t="str">
-        <f>Contacts!F7</f>
-        <v xml:space="preserve"> Owner</v>
+        <v>1</v>
+      </c>
+      <c r="B5" s="71" t="str">
+        <f>Contacts!F5</f>
+        <v xml:space="preserve"> Project Name</v>
       </c>
       <c r="C5" s="72"/>
       <c r="D5" s="72"/>
       <c r="E5" s="72"/>
-      <c r="F5" s="86" t="s">
-        <v>3</v>
-      </c>
-      <c r="G5" s="87"/>
-      <c r="H5" s="6"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="72"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
@@ -54090,21 +54060,22 @@
       <c r="O6" s="3"/>
       <c r="Q6" s="5"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A7" s="86" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="87"/>
-      <c r="C7" s="88"/>
-      <c r="D7" s="88"/>
-      <c r="E7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F7" s="94" t="s">
-        <v>73</v>
-      </c>
-      <c r="G7" s="94"/>
-      <c r="H7" s="94"/>
+    <row r="7" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="71" t="str">
+        <f>Contacts!F7</f>
+        <v xml:space="preserve"> Owner</v>
+      </c>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="73" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="74"/>
+      <c r="H7" s="6"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
@@ -54115,19 +54086,14 @@
       <c r="Q7" s="5"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A8" s="86" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="87"/>
-      <c r="C8" s="88"/>
-      <c r="D8" s="88"/>
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
       <c r="E8" s="3"/>
-      <c r="F8" s="89" t="str">
-        <f>VLOOKUP(F7,Contacts!C3:R2001,10,FALSE)</f>
-        <v>PO Box 976</v>
-      </c>
-      <c r="G8" s="89"/>
-      <c r="H8" s="89"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
@@ -54138,19 +54104,20 @@
       <c r="Q8" s="5"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A9" s="86" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="87"/>
-      <c r="C9" s="88"/>
-      <c r="D9" s="88"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="89" t="str">
-        <f>VLOOKUP(F7,Contacts!C3:R2001, 11, FALSE) &amp; ", " &amp; VLOOKUP(F7,Contacts!C3:R2001, 12, FALSE) &amp; " " &amp; VLOOKUP(F7,Contacts!C3:R2001, 13, FALSE)</f>
-        <v>Springfield, IL 62523</v>
-      </c>
-      <c r="G9" s="90"/>
-      <c r="H9" s="90"/>
+      <c r="A9" s="73" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="74"/>
+      <c r="C9" s="75"/>
+      <c r="D9" s="75"/>
+      <c r="E9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="76" t="s">
+        <v>73</v>
+      </c>
+      <c r="G9" s="76"/>
+      <c r="H9" s="76"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
@@ -54161,14 +54128,19 @@
       <c r="Q9" s="5"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A10" s="73"/>
-      <c r="B10" s="70"/>
-      <c r="C10" s="70"/>
-      <c r="D10" s="70"/>
-      <c r="E10" s="70"/>
-      <c r="F10" s="70"/>
-      <c r="G10" s="70"/>
-      <c r="H10" s="70"/>
+      <c r="A10" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="74"/>
+      <c r="C10" s="75"/>
+      <c r="D10" s="75"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="77" t="str">
+        <f>VLOOKUP(F9,Contacts!C3:R2001,10,FALSE)</f>
+        <v>PO Box 976</v>
+      </c>
+      <c r="G10" s="77"/>
+      <c r="H10" s="77"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
@@ -54178,17 +54150,20 @@
       <c r="O10" s="3"/>
       <c r="Q10" s="5"/>
     </row>
-    <row r="11" spans="1:17" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="77" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="77"/>
-      <c r="C11" s="77"/>
-      <c r="D11" s="77"/>
-      <c r="E11" s="77"/>
-      <c r="F11" s="77"/>
-      <c r="G11" s="77"/>
-      <c r="H11" s="77"/>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A11" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="74"/>
+      <c r="C11" s="75"/>
+      <c r="D11" s="75"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="77" t="str">
+        <f>VLOOKUP(F9,Contacts!C3:R2001, 11, FALSE) &amp; ", " &amp; VLOOKUP(F9,Contacts!C3:R2001, 12, FALSE) &amp; " " &amp; VLOOKUP(F9,Contacts!C3:R2001, 13, FALSE)</f>
+        <v>Springfield, IL 62523</v>
+      </c>
+      <c r="G11" s="78"/>
+      <c r="H11" s="78"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
@@ -54199,14 +54174,14 @@
       <c r="Q11" s="5"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A12" s="77"/>
-      <c r="B12" s="77"/>
-      <c r="C12" s="77"/>
-      <c r="D12" s="77"/>
-      <c r="E12" s="77"/>
-      <c r="F12" s="77"/>
-      <c r="G12" s="77"/>
-      <c r="H12" s="77"/>
+      <c r="A12" s="81"/>
+      <c r="B12" s="80"/>
+      <c r="C12" s="80"/>
+      <c r="D12" s="80"/>
+      <c r="E12" s="80"/>
+      <c r="F12" s="80"/>
+      <c r="G12" s="80"/>
+      <c r="H12" s="80"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
@@ -54216,15 +54191,17 @@
       <c r="O12" s="3"/>
       <c r="Q12" s="5"/>
     </row>
-    <row r="13" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="77"/>
-      <c r="B13" s="77"/>
-      <c r="C13" s="77"/>
-      <c r="D13" s="77"/>
-      <c r="E13" s="77"/>
-      <c r="F13" s="77"/>
-      <c r="G13" s="77"/>
-      <c r="H13" s="77"/>
+    <row r="13" spans="1:17" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="82" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="82"/>
+      <c r="C13" s="82"/>
+      <c r="D13" s="82"/>
+      <c r="E13" s="82"/>
+      <c r="F13" s="82"/>
+      <c r="G13" s="82"/>
+      <c r="H13" s="82"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
@@ -54235,24 +54212,14 @@
       <c r="Q13" s="5"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A14" s="3"/>
-      <c r="B14" s="78" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="79"/>
-      <c r="D14" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" s="78" t="s">
-        <v>13</v>
-      </c>
-      <c r="H14" s="79"/>
+      <c r="A14" s="82"/>
+      <c r="B14" s="82"/>
+      <c r="C14" s="82"/>
+      <c r="D14" s="82"/>
+      <c r="E14" s="82"/>
+      <c r="F14" s="82"/>
+      <c r="G14" s="82"/>
+      <c r="H14" s="82"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
@@ -54263,18 +54230,14 @@
       <c r="Q14" s="5"/>
     </row>
     <row r="15" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="3"/>
-      <c r="B15" s="80" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="81"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="80" t="s">
-        <v>14</v>
-      </c>
-      <c r="H15" s="81"/>
+      <c r="A15" s="82"/>
+      <c r="B15" s="82"/>
+      <c r="C15" s="82"/>
+      <c r="D15" s="82"/>
+      <c r="E15" s="82"/>
+      <c r="F15" s="82"/>
+      <c r="G15" s="82"/>
+      <c r="H15" s="82"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
@@ -54284,15 +54247,25 @@
       <c r="O15" s="3"/>
       <c r="Q15" s="5"/>
     </row>
-    <row r="16" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
+      <c r="B16" s="83" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="84"/>
+      <c r="D16" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="83" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="84"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
@@ -54304,25 +54277,17 @@
     </row>
     <row r="17" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="3"/>
-      <c r="B17" s="82"/>
-      <c r="C17" s="83"/>
-      <c r="D17" s="10">
-        <f>SUM(F39)</f>
-        <v>0</v>
-      </c>
-      <c r="E17" s="11">
-        <f>SUM(G39)</f>
-        <v>0</v>
-      </c>
-      <c r="F17" s="11">
-        <f>SUM(D17:E17)</f>
-        <v>0</v>
-      </c>
-      <c r="G17" s="84">
-        <f>SUM(B17+F17)</f>
-        <v>0</v>
-      </c>
-      <c r="H17" s="85"/>
+      <c r="B17" s="85" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="86"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="85" t="s">
+        <v>14</v>
+      </c>
+      <c r="H17" s="86"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
@@ -54332,7 +54297,7 @@
       <c r="O17" s="3"/>
       <c r="Q17" s="5"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -54350,17 +54315,27 @@
       <c r="O18" s="3"/>
       <c r="Q18" s="5"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A19" s="86" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" s="86"/>
-      <c r="C19" s="86"/>
-      <c r="D19" s="86"/>
-      <c r="E19" s="86"/>
-      <c r="F19" s="86"/>
-      <c r="G19" s="86"/>
-      <c r="H19" s="86"/>
+    <row r="19" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="3"/>
+      <c r="B19" s="87"/>
+      <c r="C19" s="88"/>
+      <c r="D19" s="10">
+        <f>SUM(F41)</f>
+        <v>0</v>
+      </c>
+      <c r="E19" s="11">
+        <f>SUM(G41)</f>
+        <v>0</v>
+      </c>
+      <c r="F19" s="11">
+        <f>SUM(D19:E19)</f>
+        <v>0</v>
+      </c>
+      <c r="G19" s="89">
+        <f>SUM(B19+F19)</f>
+        <v>0</v>
+      </c>
+      <c r="H19" s="90"/>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
@@ -54389,17 +54364,16 @@
       <c r="Q20" s="5"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="69" t="str">
-        <f>Contacts!F4</f>
-        <v>Your Company Name</v>
-      </c>
-      <c r="E21" s="70"/>
-      <c r="F21" s="70"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="3"/>
+      <c r="A21" s="73" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="73"/>
+      <c r="C21" s="73"/>
+      <c r="D21" s="73"/>
+      <c r="E21" s="73"/>
+      <c r="F21" s="73"/>
+      <c r="G21" s="73"/>
+      <c r="H21" s="73"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
@@ -54413,13 +54387,10 @@
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
-      <c r="D22" s="69" t="str">
-        <f>VLOOKUP(D21,Contacts!C3:R2001,10,FALSE)</f>
-        <v>1234 Construction Lane</v>
-      </c>
-      <c r="E22" s="70"/>
-      <c r="F22" s="70"/>
-      <c r="G22" s="70"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
@@ -54434,13 +54405,13 @@
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
-      <c r="D23" s="69" t="str">
-        <f>VLOOKUP(D21,Contacts!C3:R2001, 11, FALSE) &amp; ", " &amp; VLOOKUP(D21,Contacts!C3:R2001, 12, FALSE) &amp; " " &amp; VLOOKUP(D21,Contacts!C3:R2001, 13, FALSE)</f>
-        <v>Springfield, IL 62523</v>
-      </c>
-      <c r="E23" s="70"/>
-      <c r="F23" s="70"/>
-      <c r="G23" s="70"/>
+      <c r="D23" s="79" t="str">
+        <f>Contacts!F4</f>
+        <v>Your Company Name</v>
+      </c>
+      <c r="E23" s="80"/>
+      <c r="F23" s="80"/>
+      <c r="G23" s="4"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
@@ -54455,10 +54426,13 @@
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
+      <c r="D24" s="79" t="str">
+        <f>VLOOKUP(D23,Contacts!C3:R2001,10,FALSE)</f>
+        <v>1234 Construction Lane</v>
+      </c>
+      <c r="E24" s="80"/>
+      <c r="F24" s="80"/>
+      <c r="G24" s="80"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
@@ -54470,14 +54444,17 @@
       <c r="Q24" s="5"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A25" s="12"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="79" t="str">
+        <f>VLOOKUP(D23,Contacts!C3:R2001, 11, FALSE) &amp; ", " &amp; VLOOKUP(D23,Contacts!C3:R2001, 12, FALSE) &amp; " " &amp; VLOOKUP(D23,Contacts!C3:R2001, 13, FALSE)</f>
+        <v>Springfield, IL 62523</v>
+      </c>
+      <c r="E25" s="80"/>
+      <c r="F25" s="80"/>
+      <c r="G25" s="80"/>
+      <c r="H25" s="3"/>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
@@ -54487,7 +54464,7 @@
       <c r="O25" s="3"/>
       <c r="Q25" s="5"/>
     </row>
-    <row r="26" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -54505,21 +54482,15 @@
       <c r="O26" s="3"/>
       <c r="Q26" s="5"/>
     </row>
-    <row r="27" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="74" t="s">
-        <v>16</v>
-      </c>
-      <c r="B27" s="72"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="G27" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="H27" s="3"/>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A27" s="12"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
@@ -54529,7 +54500,7 @@
       <c r="O27" s="3"/>
       <c r="Q27" s="5"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -54547,14 +54518,20 @@
       <c r="O28" s="3"/>
       <c r="Q28" s="5"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A29" s="76"/>
-      <c r="B29" s="76"/>
-      <c r="C29" s="76"/>
-      <c r="D29" s="76"/>
+    <row r="29" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="91" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="72"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
       <c r="E29" s="3"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
+      <c r="F29" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G29" s="14" t="s">
+        <v>18</v>
+      </c>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
@@ -54566,13 +54543,13 @@
       <c r="Q29" s="5"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A30" s="76"/>
-      <c r="B30" s="76"/>
-      <c r="C30" s="76"/>
-      <c r="D30" s="76"/>
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
       <c r="E30" s="3"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
@@ -54584,10 +54561,10 @@
       <c r="Q30" s="5"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A31" s="76"/>
-      <c r="B31" s="76"/>
-      <c r="C31" s="76"/>
-      <c r="D31" s="76"/>
+      <c r="A31" s="92"/>
+      <c r="B31" s="92"/>
+      <c r="C31" s="92"/>
+      <c r="D31" s="92"/>
       <c r="E31" s="3"/>
       <c r="F31" s="15"/>
       <c r="G31" s="15"/>
@@ -54602,10 +54579,10 @@
       <c r="Q31" s="5"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A32" s="76"/>
-      <c r="B32" s="76"/>
-      <c r="C32" s="76"/>
-      <c r="D32" s="76"/>
+      <c r="A32" s="92"/>
+      <c r="B32" s="92"/>
+      <c r="C32" s="92"/>
+      <c r="D32" s="92"/>
       <c r="E32" s="3"/>
       <c r="F32" s="15"/>
       <c r="G32" s="15"/>
@@ -54620,10 +54597,10 @@
       <c r="Q32" s="5"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A33" s="76"/>
-      <c r="B33" s="76"/>
-      <c r="C33" s="76"/>
-      <c r="D33" s="76"/>
+      <c r="A33" s="92"/>
+      <c r="B33" s="92"/>
+      <c r="C33" s="92"/>
+      <c r="D33" s="92"/>
       <c r="E33" s="3"/>
       <c r="F33" s="15"/>
       <c r="G33" s="15"/>
@@ -54638,10 +54615,10 @@
       <c r="Q33" s="5"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A34" s="76"/>
-      <c r="B34" s="76"/>
-      <c r="C34" s="76"/>
-      <c r="D34" s="76"/>
+      <c r="A34" s="92"/>
+      <c r="B34" s="92"/>
+      <c r="C34" s="92"/>
+      <c r="D34" s="92"/>
       <c r="E34" s="3"/>
       <c r="F34" s="15"/>
       <c r="G34" s="15"/>
@@ -54656,10 +54633,10 @@
       <c r="Q34" s="5"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A35" s="76"/>
-      <c r="B35" s="76"/>
-      <c r="C35" s="76"/>
-      <c r="D35" s="76"/>
+      <c r="A35" s="92"/>
+      <c r="B35" s="92"/>
+      <c r="C35" s="92"/>
+      <c r="D35" s="92"/>
       <c r="E35" s="3"/>
       <c r="F35" s="15"/>
       <c r="G35" s="15"/>
@@ -54674,10 +54651,10 @@
       <c r="Q35" s="5"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A36" s="76"/>
-      <c r="B36" s="76"/>
-      <c r="C36" s="76"/>
-      <c r="D36" s="76"/>
+      <c r="A36" s="92"/>
+      <c r="B36" s="92"/>
+      <c r="C36" s="92"/>
+      <c r="D36" s="92"/>
       <c r="E36" s="3"/>
       <c r="F36" s="15"/>
       <c r="G36" s="15"/>
@@ -54692,10 +54669,10 @@
       <c r="Q36" s="5"/>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A37" s="76"/>
-      <c r="B37" s="76"/>
-      <c r="C37" s="76"/>
-      <c r="D37" s="76"/>
+      <c r="A37" s="92"/>
+      <c r="B37" s="92"/>
+      <c r="C37" s="92"/>
+      <c r="D37" s="92"/>
       <c r="E37" s="3"/>
       <c r="F37" s="15"/>
       <c r="G37" s="15"/>
@@ -54710,10 +54687,10 @@
       <c r="Q37" s="5"/>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A38" s="76"/>
-      <c r="B38" s="76"/>
-      <c r="C38" s="76"/>
-      <c r="D38" s="76"/>
+      <c r="A38" s="92"/>
+      <c r="B38" s="92"/>
+      <c r="C38" s="92"/>
+      <c r="D38" s="92"/>
       <c r="E38" s="3"/>
       <c r="F38" s="15"/>
       <c r="G38" s="15"/>
@@ -54727,22 +54704,14 @@
       <c r="O38" s="3"/>
       <c r="Q38" s="5"/>
     </row>
-    <row r="39" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="3"/>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F39" s="9">
-        <f>SUM(F29:F38)</f>
-        <v>0</v>
-      </c>
-      <c r="G39" s="9">
-        <f>SUM(G29:G38)</f>
-        <v>0</v>
-      </c>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A39" s="92"/>
+      <c r="B39" s="92"/>
+      <c r="C39" s="92"/>
+      <c r="D39" s="92"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="15"/>
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
@@ -54754,13 +54723,13 @@
       <c r="Q39" s="5"/>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A40" s="3"/>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
+      <c r="A40" s="92"/>
+      <c r="B40" s="92"/>
+      <c r="C40" s="92"/>
+      <c r="D40" s="92"/>
       <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="15"/>
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
@@ -54771,18 +54740,22 @@
       <c r="O40" s="3"/>
       <c r="Q40" s="5"/>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A41" s="73" t="s">
-        <v>20</v>
-      </c>
-      <c r="B41" s="70"/>
+    <row r="41" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
+        <v>19</v>
+      </c>
+      <c r="F41" s="9">
+        <f>SUM(F31:F40)</f>
+        <v>0</v>
+      </c>
+      <c r="G41" s="9">
+        <f>SUM(G31:G40)</f>
+        <v>0</v>
+      </c>
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
@@ -54811,20 +54784,19 @@
       <c r="O42" s="3"/>
       <c r="Q42" s="5"/>
     </row>
-    <row r="43" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="69" t="str">
-        <f>F7</f>
-        <v>Example Subcontractor</v>
-      </c>
-      <c r="B43" s="70"/>
-      <c r="C43" s="70"/>
-      <c r="D43" s="70"/>
-      <c r="E43" s="71" t="s">
-        <v>22</v>
-      </c>
-      <c r="F43" s="72"/>
-      <c r="G43" s="72"/>
-      <c r="H43" s="72"/>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A43" s="81" t="s">
+        <v>20</v>
+      </c>
+      <c r="B43" s="80"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
       <c r="K43" s="3"/>
@@ -54835,12 +54807,10 @@
       <c r="Q43" s="5"/>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A44" s="73" t="s">
-        <v>23</v>
-      </c>
-      <c r="B44" s="70"/>
-      <c r="C44" s="70"/>
-      <c r="D44" s="70"/>
+      <c r="A44" s="3"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
@@ -54854,21 +54824,20 @@
       <c r="O44" s="3"/>
       <c r="Q44" s="5"/>
     </row>
-    <row r="45" spans="1:17" ht="21.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B45" s="74"/>
-      <c r="C45" s="72"/>
-      <c r="D45" s="72"/>
-      <c r="E45" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="F45" s="75" t="s">
-        <v>25</v>
-      </c>
-      <c r="G45" s="74"/>
-      <c r="H45" s="74"/>
+    <row r="45" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A45" s="79" t="str">
+        <f>F9</f>
+        <v>Example Subcontractor</v>
+      </c>
+      <c r="B45" s="80"/>
+      <c r="C45" s="80"/>
+      <c r="D45" s="80"/>
+      <c r="E45" s="93" t="s">
+        <v>22</v>
+      </c>
+      <c r="F45" s="72"/>
+      <c r="G45" s="72"/>
+      <c r="H45" s="72"/>
       <c r="I45" s="3"/>
       <c r="J45" s="3"/>
       <c r="K45" s="3"/>
@@ -54879,10 +54848,12 @@
       <c r="Q45" s="5"/>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A46" s="3"/>
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
+      <c r="A46" s="81" t="s">
+        <v>23</v>
+      </c>
+      <c r="B46" s="80"/>
+      <c r="C46" s="80"/>
+      <c r="D46" s="80"/>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
@@ -54896,23 +54867,21 @@
       <c r="O46" s="3"/>
       <c r="Q46" s="5"/>
     </row>
-    <row r="47" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:17" ht="21.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="B47" s="13"/>
-      <c r="C47" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D47" s="13"/>
-      <c r="E47" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="F47" s="13"/>
-      <c r="G47" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="H47" s="15"/>
+        <v>24</v>
+      </c>
+      <c r="B47" s="91"/>
+      <c r="C47" s="72"/>
+      <c r="D47" s="72"/>
+      <c r="E47" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F47" s="94" t="s">
+        <v>25</v>
+      </c>
+      <c r="G47" s="91"/>
+      <c r="H47" s="91"/>
       <c r="I47" s="3"/>
       <c r="J47" s="3"/>
       <c r="K47" s="3"/>
@@ -54940,12 +54909,48 @@
       <c r="O48" s="3"/>
       <c r="Q48" s="5"/>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A49" s="54"/>
+    <row r="49" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A49" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B49" s="13"/>
+      <c r="C49" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D49" s="13"/>
+      <c r="E49" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F49" s="13"/>
+      <c r="G49" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="H49" s="15"/>
+      <c r="I49" s="3"/>
+      <c r="J49" s="3"/>
+      <c r="K49" s="3"/>
+      <c r="L49" s="3"/>
+      <c r="M49" s="3"/>
+      <c r="N49" s="3"/>
+      <c r="O49" s="3"/>
       <c r="Q49" s="5"/>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A50" s="54"/>
+      <c r="A50" s="3"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
+      <c r="I50" s="3"/>
+      <c r="J50" s="3"/>
+      <c r="K50" s="3"/>
+      <c r="L50" s="3"/>
+      <c r="M50" s="3"/>
+      <c r="N50" s="3"/>
+      <c r="O50" s="3"/>
       <c r="Q50" s="5"/>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.35">
@@ -55537,55 +55542,41 @@
       <c r="Q197" s="5"/>
     </row>
     <row r="198" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A198" s="49"/>
-      <c r="B198" s="50"/>
-      <c r="C198" s="50"/>
-      <c r="D198" s="50"/>
-      <c r="E198" s="50"/>
-      <c r="F198" s="50"/>
-      <c r="G198" s="50"/>
-      <c r="H198" s="50"/>
-      <c r="I198" s="50"/>
-      <c r="J198" s="50"/>
-      <c r="K198" s="50"/>
-      <c r="L198" s="50"/>
-      <c r="M198" s="50"/>
-      <c r="N198" s="50"/>
-      <c r="O198" s="50"/>
-      <c r="P198" s="50"/>
-      <c r="Q198" s="51"/>
+      <c r="A198" s="54"/>
+      <c r="Q198" s="5"/>
+    </row>
+    <row r="199" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A199" s="54"/>
+      <c r="Q199" s="5"/>
+    </row>
+    <row r="200" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A200" s="49"/>
+      <c r="B200" s="50"/>
+      <c r="C200" s="50"/>
+      <c r="D200" s="50"/>
+      <c r="E200" s="50"/>
+      <c r="F200" s="50"/>
+      <c r="G200" s="50"/>
+      <c r="H200" s="50"/>
+      <c r="I200" s="50"/>
+      <c r="J200" s="50"/>
+      <c r="K200" s="50"/>
+      <c r="L200" s="50"/>
+      <c r="M200" s="50"/>
+      <c r="N200" s="50"/>
+      <c r="O200" s="50"/>
+      <c r="P200" s="50"/>
+      <c r="Q200" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="D23:G23"/>
-    <mergeCell ref="A10:H10"/>
-    <mergeCell ref="A11:H13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="A19:H19"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="E45:H45"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="F47:H47"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A29:B29"/>
     <mergeCell ref="A31:D31"/>
     <mergeCell ref="A32:D32"/>
     <mergeCell ref="A33:D33"/>
@@ -55594,18 +55585,40 @@
     <mergeCell ref="A36:D36"/>
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="E43:H43"/>
-    <mergeCell ref="A44:D44"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="F45:H45"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="A13:H15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="A21:H21"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="F9:H9"/>
   </mergeCells>
   <dataValidations count="5">
-    <dataValidation allowBlank="1" showErrorMessage="1" sqref="H47 A29:D38 F29:F38 C7:D7 C9:D9" xr:uid="{22CC2D08-D6A2-4BBD-AF11-90F5F6B0C39B}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a new Subcontractor Change Order Number." sqref="C8:D8" xr:uid="{9F2258F9-5C4F-4DC5-BF19-6A6184EB50AC}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter previous contract amount." sqref="B17:C17" xr:uid="{E49D34B7-C1DE-4E01-9F7F-C8E3C453AB8D}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This cell must contain a negative number (-100)" sqref="F29:G29 G30:G38" xr:uid="{A3E522BB-64A7-41F9-BE8C-5511D64EAA17}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Owner Change Order Number." sqref="H5" xr:uid="{AF9FB751-D275-40EF-A694-BEEE5409B4DB}"/>
+    <dataValidation allowBlank="1" showErrorMessage="1" sqref="H49 A31:D40 F31:F40 C9:D9 C11:D11" xr:uid="{22CC2D08-D6A2-4BBD-AF11-90F5F6B0C39B}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a new Subcontractor Change Order Number." sqref="C10:D10" xr:uid="{9F2258F9-5C4F-4DC5-BF19-6A6184EB50AC}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter previous contract amount." sqref="B19:C19" xr:uid="{E49D34B7-C1DE-4E01-9F7F-C8E3C453AB8D}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This cell must contain a negative number (-100)" sqref="F31:G31 G32:G40" xr:uid="{A3E522BB-64A7-41F9-BE8C-5511D64EAA17}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Owner Change Order Number." sqref="H7" xr:uid="{AF9FB751-D275-40EF-A694-BEEE5409B4DB}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -55615,7 +55628,7 @@
           <x14:formula1>
             <xm:f>Contacts!$F$2:$F$2000</xm:f>
           </x14:formula1>
-          <xm:sqref>F7:H7</xm:sqref>
+          <xm:sqref>F9:H9</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -55754,12 +55767,12 @@
     <row r="3" spans="1:17" ht="20" x14ac:dyDescent="0.4">
       <c r="A3" s="1"/>
       <c r="B3" s="2"/>
-      <c r="C3" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="92"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="92"/>
+      <c r="C3" s="69" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="24"/>
@@ -55794,7 +55807,7 @@
       <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="93" t="str">
+      <c r="B5" s="71" t="str">
         <f>Contacts!F5</f>
         <v xml:space="preserve"> Project Name</v>
       </c>
@@ -55835,17 +55848,17 @@
       <c r="A7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="93" t="str">
+      <c r="B7" s="71" t="str">
         <f>Contacts!F7</f>
         <v xml:space="preserve"> Owner</v>
       </c>
       <c r="C7" s="72"/>
       <c r="D7" s="72"/>
       <c r="E7" s="72"/>
-      <c r="F7" s="86" t="s">
+      <c r="F7" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="87"/>
+      <c r="G7" s="74"/>
       <c r="H7" s="6"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
@@ -55875,20 +55888,20 @@
       <c r="Q8" s="5"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A9" s="86" t="s">
+      <c r="A9" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="87"/>
-      <c r="C9" s="88"/>
-      <c r="D9" s="88"/>
+      <c r="B9" s="74"/>
+      <c r="C9" s="75"/>
+      <c r="D9" s="75"/>
       <c r="E9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="94" t="s">
+      <c r="F9" s="76" t="s">
         <v>73</v>
       </c>
-      <c r="G9" s="94"/>
-      <c r="H9" s="94"/>
+      <c r="G9" s="76"/>
+      <c r="H9" s="76"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
@@ -55899,19 +55912,19 @@
       <c r="Q9" s="5"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A10" s="86" t="s">
+      <c r="A10" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="87"/>
-      <c r="C10" s="88"/>
-      <c r="D10" s="88"/>
+      <c r="B10" s="74"/>
+      <c r="C10" s="75"/>
+      <c r="D10" s="75"/>
       <c r="E10" s="3"/>
-      <c r="F10" s="89" t="str">
+      <c r="F10" s="77" t="str">
         <f>VLOOKUP(F9,Contacts!C3:R2001,10,FALSE)</f>
         <v>PO Box 976</v>
       </c>
-      <c r="G10" s="89"/>
-      <c r="H10" s="89"/>
+      <c r="G10" s="77"/>
+      <c r="H10" s="77"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
@@ -55922,19 +55935,19 @@
       <c r="Q10" s="5"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A11" s="86" t="s">
+      <c r="A11" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="87"/>
-      <c r="C11" s="88"/>
-      <c r="D11" s="88"/>
+      <c r="B11" s="74"/>
+      <c r="C11" s="75"/>
+      <c r="D11" s="75"/>
       <c r="E11" s="3"/>
-      <c r="F11" s="89" t="str">
+      <c r="F11" s="77" t="str">
         <f>VLOOKUP(F9,Contacts!C3:R2001, 11, FALSE) &amp; ", " &amp; VLOOKUP(F9,Contacts!C3:R2001, 12, FALSE) &amp; " " &amp; VLOOKUP(F9,Contacts!C3:R2001, 13, FALSE)</f>
         <v>Springfield, IL 62523</v>
       </c>
-      <c r="G11" s="90"/>
-      <c r="H11" s="90"/>
+      <c r="G11" s="78"/>
+      <c r="H11" s="78"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
@@ -55945,14 +55958,14 @@
       <c r="Q11" s="5"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A12" s="73"/>
-      <c r="B12" s="70"/>
-      <c r="C12" s="70"/>
-      <c r="D12" s="70"/>
-      <c r="E12" s="70"/>
-      <c r="F12" s="70"/>
-      <c r="G12" s="70"/>
-      <c r="H12" s="70"/>
+      <c r="A12" s="81"/>
+      <c r="B12" s="80"/>
+      <c r="C12" s="80"/>
+      <c r="D12" s="80"/>
+      <c r="E12" s="80"/>
+      <c r="F12" s="80"/>
+      <c r="G12" s="80"/>
+      <c r="H12" s="80"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
@@ -55963,16 +55976,16 @@
       <c r="Q12" s="5"/>
     </row>
     <row r="13" spans="1:17" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="77" t="s">
+      <c r="A13" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="77"/>
-      <c r="C13" s="77"/>
-      <c r="D13" s="77"/>
-      <c r="E13" s="77"/>
-      <c r="F13" s="77"/>
-      <c r="G13" s="77"/>
-      <c r="H13" s="77"/>
+      <c r="B13" s="82"/>
+      <c r="C13" s="82"/>
+      <c r="D13" s="82"/>
+      <c r="E13" s="82"/>
+      <c r="F13" s="82"/>
+      <c r="G13" s="82"/>
+      <c r="H13" s="82"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
@@ -55983,14 +55996,14 @@
       <c r="Q13" s="5"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A14" s="77"/>
-      <c r="B14" s="77"/>
-      <c r="C14" s="77"/>
-      <c r="D14" s="77"/>
-      <c r="E14" s="77"/>
-      <c r="F14" s="77"/>
-      <c r="G14" s="77"/>
-      <c r="H14" s="77"/>
+      <c r="A14" s="82"/>
+      <c r="B14" s="82"/>
+      <c r="C14" s="82"/>
+      <c r="D14" s="82"/>
+      <c r="E14" s="82"/>
+      <c r="F14" s="82"/>
+      <c r="G14" s="82"/>
+      <c r="H14" s="82"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
@@ -56001,14 +56014,14 @@
       <c r="Q14" s="5"/>
     </row>
     <row r="15" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="77"/>
-      <c r="B15" s="77"/>
-      <c r="C15" s="77"/>
-      <c r="D15" s="77"/>
-      <c r="E15" s="77"/>
-      <c r="F15" s="77"/>
-      <c r="G15" s="77"/>
-      <c r="H15" s="77"/>
+      <c r="A15" s="82"/>
+      <c r="B15" s="82"/>
+      <c r="C15" s="82"/>
+      <c r="D15" s="82"/>
+      <c r="E15" s="82"/>
+      <c r="F15" s="82"/>
+      <c r="G15" s="82"/>
+      <c r="H15" s="82"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
@@ -56020,10 +56033,10 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16" s="3"/>
-      <c r="B16" s="78" t="s">
+      <c r="B16" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="79"/>
+      <c r="C16" s="84"/>
       <c r="D16" s="8" t="s">
         <v>10</v>
       </c>
@@ -56033,10 +56046,10 @@
       <c r="F16" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G16" s="78" t="s">
+      <c r="G16" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="H16" s="79"/>
+      <c r="H16" s="84"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
@@ -56048,17 +56061,17 @@
     </row>
     <row r="17" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="3"/>
-      <c r="B17" s="80" t="s">
+      <c r="B17" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="81"/>
+      <c r="C17" s="86"/>
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
-      <c r="G17" s="80" t="s">
+      <c r="G17" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="H17" s="81"/>
+      <c r="H17" s="86"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
@@ -56088,8 +56101,8 @@
     </row>
     <row r="19" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="3"/>
-      <c r="B19" s="82"/>
-      <c r="C19" s="83"/>
+      <c r="B19" s="87"/>
+      <c r="C19" s="88"/>
       <c r="D19" s="10">
         <f>SUM(F41)</f>
         <v>0</v>
@@ -56102,11 +56115,11 @@
         <f>SUM(D19:E19)</f>
         <v>0</v>
       </c>
-      <c r="G19" s="84">
+      <c r="G19" s="89">
         <f>SUM(B19+F19)</f>
         <v>0</v>
       </c>
-      <c r="H19" s="85"/>
+      <c r="H19" s="90"/>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
@@ -56135,16 +56148,16 @@
       <c r="Q20" s="5"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A21" s="86" t="s">
+      <c r="A21" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="86"/>
-      <c r="C21" s="86"/>
-      <c r="D21" s="86"/>
-      <c r="E21" s="86"/>
-      <c r="F21" s="86"/>
-      <c r="G21" s="86"/>
-      <c r="H21" s="86"/>
+      <c r="B21" s="73"/>
+      <c r="C21" s="73"/>
+      <c r="D21" s="73"/>
+      <c r="E21" s="73"/>
+      <c r="F21" s="73"/>
+      <c r="G21" s="73"/>
+      <c r="H21" s="73"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
@@ -56176,12 +56189,12 @@
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
-      <c r="D23" s="69" t="str">
+      <c r="D23" s="79" t="str">
         <f>Contacts!F4</f>
         <v>Your Company Name</v>
       </c>
-      <c r="E23" s="70"/>
-      <c r="F23" s="70"/>
+      <c r="E23" s="80"/>
+      <c r="F23" s="80"/>
       <c r="G23" s="4"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
@@ -56197,13 +56210,13 @@
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
-      <c r="D24" s="69" t="str">
+      <c r="D24" s="79" t="str">
         <f>VLOOKUP(D23,Contacts!C3:R2001,10,FALSE)</f>
         <v>1234 Construction Lane</v>
       </c>
-      <c r="E24" s="70"/>
-      <c r="F24" s="70"/>
-      <c r="G24" s="70"/>
+      <c r="E24" s="80"/>
+      <c r="F24" s="80"/>
+      <c r="G24" s="80"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
@@ -56218,13 +56231,13 @@
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
-      <c r="D25" s="69" t="str">
+      <c r="D25" s="79" t="str">
         <f>VLOOKUP(D23,Contacts!C3:R2001, 11, FALSE) &amp; ", " &amp; VLOOKUP(D23,Contacts!C3:R2001, 12, FALSE) &amp; " " &amp; VLOOKUP(D23,Contacts!C3:R2001, 13, FALSE)</f>
         <v>Springfield, IL 62523</v>
       </c>
-      <c r="E25" s="70"/>
-      <c r="F25" s="70"/>
-      <c r="G25" s="70"/>
+      <c r="E25" s="80"/>
+      <c r="F25" s="80"/>
+      <c r="G25" s="80"/>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
@@ -56290,7 +56303,7 @@
       <c r="Q28" s="5"/>
     </row>
     <row r="29" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="74" t="s">
+      <c r="A29" s="91" t="s">
         <v>16</v>
       </c>
       <c r="B29" s="72"/>
@@ -56332,10 +56345,10 @@
       <c r="Q30" s="5"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A31" s="76"/>
-      <c r="B31" s="76"/>
-      <c r="C31" s="76"/>
-      <c r="D31" s="76"/>
+      <c r="A31" s="92"/>
+      <c r="B31" s="92"/>
+      <c r="C31" s="92"/>
+      <c r="D31" s="92"/>
       <c r="E31" s="3"/>
       <c r="F31" s="15"/>
       <c r="G31" s="15"/>
@@ -56350,10 +56363,10 @@
       <c r="Q31" s="5"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A32" s="76"/>
-      <c r="B32" s="76"/>
-      <c r="C32" s="76"/>
-      <c r="D32" s="76"/>
+      <c r="A32" s="92"/>
+      <c r="B32" s="92"/>
+      <c r="C32" s="92"/>
+      <c r="D32" s="92"/>
       <c r="E32" s="3"/>
       <c r="F32" s="15"/>
       <c r="G32" s="15"/>
@@ -56368,10 +56381,10 @@
       <c r="Q32" s="5"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A33" s="76"/>
-      <c r="B33" s="76"/>
-      <c r="C33" s="76"/>
-      <c r="D33" s="76"/>
+      <c r="A33" s="92"/>
+      <c r="B33" s="92"/>
+      <c r="C33" s="92"/>
+      <c r="D33" s="92"/>
       <c r="E33" s="3"/>
       <c r="F33" s="15"/>
       <c r="G33" s="15"/>
@@ -56386,10 +56399,10 @@
       <c r="Q33" s="5"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A34" s="76"/>
-      <c r="B34" s="76"/>
-      <c r="C34" s="76"/>
-      <c r="D34" s="76"/>
+      <c r="A34" s="92"/>
+      <c r="B34" s="92"/>
+      <c r="C34" s="92"/>
+      <c r="D34" s="92"/>
       <c r="E34" s="3"/>
       <c r="F34" s="15"/>
       <c r="G34" s="15"/>
@@ -56404,10 +56417,10 @@
       <c r="Q34" s="5"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A35" s="76"/>
-      <c r="B35" s="76"/>
-      <c r="C35" s="76"/>
-      <c r="D35" s="76"/>
+      <c r="A35" s="92"/>
+      <c r="B35" s="92"/>
+      <c r="C35" s="92"/>
+      <c r="D35" s="92"/>
       <c r="E35" s="3"/>
       <c r="F35" s="15"/>
       <c r="G35" s="15"/>
@@ -56422,10 +56435,10 @@
       <c r="Q35" s="5"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A36" s="76"/>
-      <c r="B36" s="76"/>
-      <c r="C36" s="76"/>
-      <c r="D36" s="76"/>
+      <c r="A36" s="92"/>
+      <c r="B36" s="92"/>
+      <c r="C36" s="92"/>
+      <c r="D36" s="92"/>
       <c r="E36" s="3"/>
       <c r="F36" s="15"/>
       <c r="G36" s="15"/>
@@ -56440,10 +56453,10 @@
       <c r="Q36" s="5"/>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A37" s="76"/>
-      <c r="B37" s="76"/>
-      <c r="C37" s="76"/>
-      <c r="D37" s="76"/>
+      <c r="A37" s="92"/>
+      <c r="B37" s="92"/>
+      <c r="C37" s="92"/>
+      <c r="D37" s="92"/>
       <c r="E37" s="3"/>
       <c r="F37" s="15"/>
       <c r="G37" s="15"/>
@@ -56458,10 +56471,10 @@
       <c r="Q37" s="5"/>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A38" s="76"/>
-      <c r="B38" s="76"/>
-      <c r="C38" s="76"/>
-      <c r="D38" s="76"/>
+      <c r="A38" s="92"/>
+      <c r="B38" s="92"/>
+      <c r="C38" s="92"/>
+      <c r="D38" s="92"/>
       <c r="E38" s="3"/>
       <c r="F38" s="15"/>
       <c r="G38" s="15"/>
@@ -56476,10 +56489,10 @@
       <c r="Q38" s="5"/>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A39" s="76"/>
-      <c r="B39" s="76"/>
-      <c r="C39" s="76"/>
-      <c r="D39" s="76"/>
+      <c r="A39" s="92"/>
+      <c r="B39" s="92"/>
+      <c r="C39" s="92"/>
+      <c r="D39" s="92"/>
       <c r="E39" s="3"/>
       <c r="F39" s="15"/>
       <c r="G39" s="15"/>
@@ -56494,10 +56507,10 @@
       <c r="Q39" s="5"/>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A40" s="76"/>
-      <c r="B40" s="76"/>
-      <c r="C40" s="76"/>
-      <c r="D40" s="76"/>
+      <c r="A40" s="92"/>
+      <c r="B40" s="92"/>
+      <c r="C40" s="92"/>
+      <c r="D40" s="92"/>
       <c r="E40" s="3"/>
       <c r="F40" s="15"/>
       <c r="G40" s="15"/>
@@ -56556,10 +56569,10 @@
       <c r="Q42" s="5"/>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A43" s="73" t="s">
+      <c r="A43" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="B43" s="70"/>
+      <c r="B43" s="80"/>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3" t="s">
@@ -56596,14 +56609,14 @@
       <c r="Q44" s="5"/>
     </row>
     <row r="45" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="69" t="str">
+      <c r="A45" s="79" t="str">
         <f>F9</f>
         <v>Example Subcontractor</v>
       </c>
-      <c r="B45" s="70"/>
-      <c r="C45" s="70"/>
-      <c r="D45" s="70"/>
-      <c r="E45" s="71" t="s">
+      <c r="B45" s="80"/>
+      <c r="C45" s="80"/>
+      <c r="D45" s="80"/>
+      <c r="E45" s="93" t="s">
         <v>22</v>
       </c>
       <c r="F45" s="72"/>
@@ -56619,12 +56632,12 @@
       <c r="Q45" s="5"/>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A46" s="73" t="s">
+      <c r="A46" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="B46" s="70"/>
-      <c r="C46" s="70"/>
-      <c r="D46" s="70"/>
+      <c r="B46" s="80"/>
+      <c r="C46" s="80"/>
+      <c r="D46" s="80"/>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
@@ -56642,17 +56655,17 @@
       <c r="A47" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B47" s="74"/>
+      <c r="B47" s="91"/>
       <c r="C47" s="72"/>
       <c r="D47" s="72"/>
       <c r="E47" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="F47" s="75" t="s">
+      <c r="F47" s="94" t="s">
         <v>25</v>
       </c>
-      <c r="G47" s="74"/>
-      <c r="H47" s="74"/>
+      <c r="G47" s="91"/>
+      <c r="H47" s="91"/>
       <c r="I47" s="3"/>
       <c r="J47" s="3"/>
       <c r="K47" s="3"/>
@@ -57341,19 +57354,23 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="E45:H45"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="F47:H47"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A40:D40"/>
     <mergeCell ref="D25:G25"/>
     <mergeCell ref="A12:H12"/>
     <mergeCell ref="A13:H15"/>
@@ -57366,23 +57383,19 @@
     <mergeCell ref="A21:H21"/>
     <mergeCell ref="D23:F23"/>
     <mergeCell ref="D24:G24"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="E45:H45"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="F47:H47"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="F9:H9"/>
   </mergeCells>
   <dataValidations count="5">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Owner Change Order Number." sqref="H7" xr:uid="{1FB645DA-E8D8-47CB-9B9F-272B7A06D8B1}"/>
@@ -57432,20 +57445,20 @@
         <f>View_Print!B2</f>
         <v>0</v>
       </c>
-      <c r="B1" s="95" t="str">
+      <c r="B1" s="96" t="str">
         <f>HYPERLINK("https://datamateapp.github.io/Donate%205%20per%20mo.html", "All Apps are free of charge with no ads. Please support DataMateApp and help us grow!")</f>
         <v>All Apps are free of charge with no ads. Please support DataMateApp and help us grow!</v>
       </c>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
       <c r="M1" s="48" t="str">
         <f>Input!M1</f>
         <v>Update 1</v>
@@ -57463,17 +57476,17 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="48"/>
-      <c r="B2" s="96"/>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="96"/>
-      <c r="K2" s="96"/>
-      <c r="L2" s="96"/>
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="95"/>
+      <c r="L2" s="95"/>
       <c r="M2" t="e">
         <f>VLOOKUP(A1,Update!$A$1:$P$1000000,2,FALSE)</f>
         <v>#N/A</v>
@@ -57498,13 +57511,13 @@
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,37,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="C3" s="91" t="e">
+      <c r="C3" s="69" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,38,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D3" s="92"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="92"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
       <c r="G3" s="3" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,42,FALSE)</f>
         <v>#N/A</v>
@@ -57625,7 +57638,7 @@
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,70,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="B5" s="93" t="e">
+      <c r="B5" s="71" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,71,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -57747,18 +57760,18 @@
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,104,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="B7" s="93" t="e">
+      <c r="B7" s="71" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,105,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="C7" s="72"/>
       <c r="D7" s="72"/>
       <c r="E7" s="72"/>
-      <c r="F7" s="86" t="e">
+      <c r="F7" s="73" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,109,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="G7" s="87"/>
+      <c r="G7" s="74"/>
       <c r="H7" s="6" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,111,FALSE)</f>
         <v>#N/A</v>
@@ -57871,26 +57884,26 @@
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A9" s="86" t="e">
+      <c r="A9" s="73" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,138,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="B9" s="87"/>
-      <c r="C9" s="88" t="e">
+      <c r="B9" s="74"/>
+      <c r="C9" s="75" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,140,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D9" s="88"/>
+      <c r="D9" s="75"/>
       <c r="E9" s="3" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,142,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F9" s="94" t="e">
+      <c r="F9" s="76" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,143,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="G9" s="94"/>
-      <c r="H9" s="94"/>
+      <c r="G9" s="76"/>
+      <c r="H9" s="76"/>
       <c r="I9" s="3" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,146,FALSE)</f>
         <v>#N/A</v>
@@ -57929,26 +57942,26 @@
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A10" s="86" t="e">
+      <c r="A10" s="73" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,155,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="B10" s="87"/>
-      <c r="C10" s="88" t="e">
+      <c r="B10" s="74"/>
+      <c r="C10" s="75" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,157,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D10" s="88"/>
+      <c r="D10" s="75"/>
       <c r="E10" s="3" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,159,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F10" s="89" t="e">
+      <c r="F10" s="77" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,160,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="G10" s="89"/>
-      <c r="H10" s="89"/>
+      <c r="G10" s="77"/>
+      <c r="H10" s="77"/>
       <c r="I10" s="3" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,163,FALSE)</f>
         <v>#N/A</v>
@@ -57987,26 +58000,26 @@
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A11" s="86" t="e">
+      <c r="A11" s="73" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,172,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="B11" s="87"/>
-      <c r="C11" s="88" t="e">
+      <c r="B11" s="74"/>
+      <c r="C11" s="75" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,174,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D11" s="88"/>
+      <c r="D11" s="75"/>
       <c r="E11" s="3" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,176,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F11" s="89" t="e">
+      <c r="F11" s="77" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,177,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="G11" s="90"/>
-      <c r="H11" s="90"/>
+      <c r="G11" s="78"/>
+      <c r="H11" s="78"/>
       <c r="I11" s="3" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,180,FALSE)</f>
         <v>#N/A</v>
@@ -58045,17 +58058,17 @@
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A12" s="73" t="e">
+      <c r="A12" s="81" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,189,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="B12" s="70"/>
-      <c r="C12" s="70"/>
-      <c r="D12" s="70"/>
-      <c r="E12" s="70"/>
-      <c r="F12" s="70"/>
-      <c r="G12" s="70"/>
-      <c r="H12" s="70"/>
+      <c r="B12" s="80"/>
+      <c r="C12" s="80"/>
+      <c r="D12" s="80"/>
+      <c r="E12" s="80"/>
+      <c r="F12" s="80"/>
+      <c r="G12" s="80"/>
+      <c r="H12" s="80"/>
       <c r="I12" s="3" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,197,FALSE)</f>
         <v>#N/A</v>
@@ -58094,17 +58107,17 @@
       </c>
     </row>
     <row r="13" spans="1:17" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="77" t="e">
+      <c r="A13" s="82" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,206,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="B13" s="77"/>
-      <c r="C13" s="77"/>
-      <c r="D13" s="77"/>
-      <c r="E13" s="77"/>
-      <c r="F13" s="77"/>
-      <c r="G13" s="77"/>
-      <c r="H13" s="77"/>
+      <c r="B13" s="82"/>
+      <c r="C13" s="82"/>
+      <c r="D13" s="82"/>
+      <c r="E13" s="82"/>
+      <c r="F13" s="82"/>
+      <c r="G13" s="82"/>
+      <c r="H13" s="82"/>
       <c r="I13" s="3" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,214,FALSE)</f>
         <v>#N/A</v>
@@ -58143,14 +58156,14 @@
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A14" s="77"/>
-      <c r="B14" s="77"/>
-      <c r="C14" s="77"/>
-      <c r="D14" s="77"/>
-      <c r="E14" s="77"/>
-      <c r="F14" s="77"/>
-      <c r="G14" s="77"/>
-      <c r="H14" s="77"/>
+      <c r="A14" s="82"/>
+      <c r="B14" s="82"/>
+      <c r="C14" s="82"/>
+      <c r="D14" s="82"/>
+      <c r="E14" s="82"/>
+      <c r="F14" s="82"/>
+      <c r="G14" s="82"/>
+      <c r="H14" s="82"/>
       <c r="I14" s="3" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,231,FALSE)</f>
         <v>#N/A</v>
@@ -58189,14 +58202,14 @@
       </c>
     </row>
     <row r="15" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="77"/>
-      <c r="B15" s="77"/>
-      <c r="C15" s="77"/>
-      <c r="D15" s="77"/>
-      <c r="E15" s="77"/>
-      <c r="F15" s="77"/>
-      <c r="G15" s="77"/>
-      <c r="H15" s="77"/>
+      <c r="A15" s="82"/>
+      <c r="B15" s="82"/>
+      <c r="C15" s="82"/>
+      <c r="D15" s="82"/>
+      <c r="E15" s="82"/>
+      <c r="F15" s="82"/>
+      <c r="G15" s="82"/>
+      <c r="H15" s="82"/>
       <c r="I15" s="3" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,248,FALSE)</f>
         <v>#N/A</v>
@@ -58239,11 +58252,11 @@
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,257,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="B16" s="78" t="e">
+      <c r="B16" s="83" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,258,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="C16" s="79"/>
+      <c r="C16" s="84"/>
       <c r="D16" s="8" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,260,FALSE)</f>
         <v>#N/A</v>
@@ -58256,11 +58269,11 @@
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,262,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="G16" s="78" t="e">
+      <c r="G16" s="83" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,263,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="H16" s="79"/>
+      <c r="H16" s="84"/>
       <c r="I16" s="3" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,265,FALSE)</f>
         <v>#N/A</v>
@@ -58303,11 +58316,11 @@
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,274,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="B17" s="80" t="e">
+      <c r="B17" s="85" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,275,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="C17" s="81"/>
+      <c r="C17" s="86"/>
       <c r="D17" s="9" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,277,FALSE)</f>
         <v>#N/A</v>
@@ -58320,11 +58333,11 @@
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,279,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="G17" s="80" t="e">
+      <c r="G17" s="85" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,280,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="H17" s="81"/>
+      <c r="H17" s="86"/>
       <c r="I17" s="3" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,282,FALSE)</f>
         <v>#N/A</v>
@@ -58437,11 +58450,11 @@
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,308,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="B19" s="82" t="e">
+      <c r="B19" s="87" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,309,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="C19" s="83"/>
+      <c r="C19" s="88"/>
       <c r="D19" s="10" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,311,FALSE)</f>
         <v>#N/A</v>
@@ -58454,11 +58467,11 @@
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,313,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="G19" s="84" t="e">
+      <c r="G19" s="89" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,314,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="H19" s="85"/>
+      <c r="H19" s="90"/>
       <c r="I19" s="3" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,316,FALSE)</f>
         <v>#N/A</v>
@@ -58567,17 +58580,17 @@
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A21" s="86" t="e">
+      <c r="A21" s="73" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,342,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="B21" s="86"/>
-      <c r="C21" s="86"/>
-      <c r="D21" s="86"/>
-      <c r="E21" s="86"/>
-      <c r="F21" s="86"/>
-      <c r="G21" s="86"/>
-      <c r="H21" s="86"/>
+      <c r="B21" s="73"/>
+      <c r="C21" s="73"/>
+      <c r="D21" s="73"/>
+      <c r="E21" s="73"/>
+      <c r="F21" s="73"/>
+      <c r="G21" s="73"/>
+      <c r="H21" s="73"/>
       <c r="I21" s="3" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,350,FALSE)</f>
         <v>#N/A</v>
@@ -58698,12 +58711,12 @@
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,378,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D23" s="69" t="e">
+      <c r="D23" s="79" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,379,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="E23" s="70"/>
-      <c r="F23" s="70"/>
+      <c r="E23" s="80"/>
+      <c r="F23" s="80"/>
       <c r="G23" s="4" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,382,FALSE)</f>
         <v>#N/A</v>
@@ -58762,13 +58775,13 @@
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,395,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D24" s="69" t="e">
+      <c r="D24" s="79" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,396,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="E24" s="70"/>
-      <c r="F24" s="70"/>
-      <c r="G24" s="70"/>
+      <c r="E24" s="80"/>
+      <c r="F24" s="80"/>
+      <c r="G24" s="80"/>
       <c r="H24" s="3" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,400,FALSE)</f>
         <v>#N/A</v>
@@ -58823,13 +58836,13 @@
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,412,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D25" s="69" t="e">
+      <c r="D25" s="79" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,413,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="E25" s="70"/>
-      <c r="F25" s="70"/>
-      <c r="G25" s="70"/>
+      <c r="E25" s="80"/>
+      <c r="F25" s="80"/>
+      <c r="G25" s="80"/>
       <c r="H25" s="3" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,417,FALSE)</f>
         <v>#N/A</v>
@@ -59082,7 +59095,7 @@
       </c>
     </row>
     <row r="29" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="74" t="e">
+      <c r="A29" s="91" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,478,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -59219,13 +59232,13 @@
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A31" s="76" t="e">
+      <c r="A31" s="92" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,512,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="B31" s="76"/>
-      <c r="C31" s="76"/>
-      <c r="D31" s="76"/>
+      <c r="B31" s="92"/>
+      <c r="C31" s="92"/>
+      <c r="D31" s="92"/>
       <c r="E31" s="3" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,516,FALSE)</f>
         <v>#N/A</v>
@@ -59280,13 +59293,13 @@
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A32" s="76" t="e">
+      <c r="A32" s="92" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,529,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="B32" s="76"/>
-      <c r="C32" s="76"/>
-      <c r="D32" s="76"/>
+      <c r="B32" s="92"/>
+      <c r="C32" s="92"/>
+      <c r="D32" s="92"/>
       <c r="E32" s="3" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,533,FALSE)</f>
         <v>#N/A</v>
@@ -59341,13 +59354,13 @@
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A33" s="76" t="e">
+      <c r="A33" s="92" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,546,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="B33" s="76"/>
-      <c r="C33" s="76"/>
-      <c r="D33" s="76"/>
+      <c r="B33" s="92"/>
+      <c r="C33" s="92"/>
+      <c r="D33" s="92"/>
       <c r="E33" s="3" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,550,FALSE)</f>
         <v>#N/A</v>
@@ -59402,13 +59415,13 @@
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A34" s="76" t="e">
+      <c r="A34" s="92" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,563,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="B34" s="76"/>
-      <c r="C34" s="76"/>
-      <c r="D34" s="76"/>
+      <c r="B34" s="92"/>
+      <c r="C34" s="92"/>
+      <c r="D34" s="92"/>
       <c r="E34" s="3" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,567,FALSE)</f>
         <v>#N/A</v>
@@ -59463,13 +59476,13 @@
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A35" s="76" t="e">
+      <c r="A35" s="92" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,580,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="B35" s="76"/>
-      <c r="C35" s="76"/>
-      <c r="D35" s="76"/>
+      <c r="B35" s="92"/>
+      <c r="C35" s="92"/>
+      <c r="D35" s="92"/>
       <c r="E35" s="3" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,584,FALSE)</f>
         <v>#N/A</v>
@@ -59524,13 +59537,13 @@
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A36" s="76" t="e">
+      <c r="A36" s="92" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,597,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="B36" s="76"/>
-      <c r="C36" s="76"/>
-      <c r="D36" s="76"/>
+      <c r="B36" s="92"/>
+      <c r="C36" s="92"/>
+      <c r="D36" s="92"/>
       <c r="E36" s="3" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,601,FALSE)</f>
         <v>#N/A</v>
@@ -59585,13 +59598,13 @@
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A37" s="76" t="e">
+      <c r="A37" s="92" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,614,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="B37" s="76"/>
-      <c r="C37" s="76"/>
-      <c r="D37" s="76"/>
+      <c r="B37" s="92"/>
+      <c r="C37" s="92"/>
+      <c r="D37" s="92"/>
       <c r="E37" s="3" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,618,FALSE)</f>
         <v>#N/A</v>
@@ -59646,13 +59659,13 @@
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A38" s="76" t="e">
+      <c r="A38" s="92" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,631,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="B38" s="76"/>
-      <c r="C38" s="76"/>
-      <c r="D38" s="76"/>
+      <c r="B38" s="92"/>
+      <c r="C38" s="92"/>
+      <c r="D38" s="92"/>
       <c r="E38" s="3" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,635,FALSE)</f>
         <v>#N/A</v>
@@ -59707,13 +59720,13 @@
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A39" s="76" t="e">
+      <c r="A39" s="92" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,648,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="B39" s="76"/>
-      <c r="C39" s="76"/>
-      <c r="D39" s="76"/>
+      <c r="B39" s="92"/>
+      <c r="C39" s="92"/>
+      <c r="D39" s="92"/>
       <c r="E39" s="3" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,652,FALSE)</f>
         <v>#N/A</v>
@@ -59768,13 +59781,13 @@
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A40" s="76" t="e">
+      <c r="A40" s="92" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,665,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="B40" s="76"/>
-      <c r="C40" s="76"/>
-      <c r="D40" s="76"/>
+      <c r="B40" s="92"/>
+      <c r="C40" s="92"/>
+      <c r="D40" s="92"/>
       <c r="E40" s="3" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,669,FALSE)</f>
         <v>#N/A</v>
@@ -59969,11 +59982,11 @@
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A43" s="73" t="e">
+      <c r="A43" s="81" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,716,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="B43" s="70"/>
+      <c r="B43" s="80"/>
       <c r="C43" s="3" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,718,FALSE)</f>
         <v>#N/A</v>
@@ -60106,14 +60119,14 @@
       </c>
     </row>
     <row r="45" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="69" t="e">
+      <c r="A45" s="79" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,750,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="B45" s="70"/>
-      <c r="C45" s="70"/>
-      <c r="D45" s="70"/>
-      <c r="E45" s="71" t="e">
+      <c r="B45" s="80"/>
+      <c r="C45" s="80"/>
+      <c r="D45" s="80"/>
+      <c r="E45" s="93" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,754,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -60158,13 +60171,13 @@
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A46" s="73" t="e">
+      <c r="A46" s="81" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,767,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="B46" s="70"/>
-      <c r="C46" s="70"/>
-      <c r="D46" s="70"/>
+      <c r="B46" s="80"/>
+      <c r="C46" s="80"/>
+      <c r="D46" s="80"/>
       <c r="E46" s="3" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,771,FALSE)</f>
         <v>#N/A</v>
@@ -60223,7 +60236,7 @@
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,784,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="B47" s="74" t="e">
+      <c r="B47" s="91" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,785,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -60233,12 +60246,12 @@
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,788,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F47" s="75" t="e">
+      <c r="F47" s="94" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,789,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="G47" s="74"/>
-      <c r="H47" s="74"/>
+      <c r="G47" s="91"/>
+      <c r="H47" s="91"/>
       <c r="I47" s="3" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,792,FALSE)</f>
         <v>#N/A</v>
@@ -70988,34 +71001,6 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="B2:L2"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="D25:G25"/>
-    <mergeCell ref="A12:H12"/>
-    <mergeCell ref="A13:H15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="A21:H21"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="D24:G24"/>
     <mergeCell ref="B1:L1"/>
     <mergeCell ref="A45:D45"/>
     <mergeCell ref="E45:H45"/>
@@ -71032,6 +71017,34 @@
     <mergeCell ref="A36:D36"/>
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="A13:H15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="A21:H21"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="B2:L2"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:G7"/>
   </mergeCells>
   <dataValidations count="5">
     <dataValidation allowBlank="1" showErrorMessage="1" sqref="H49 A31:D40 F31:F40 C9:D9 C11:D11" xr:uid="{9C453E87-9CC2-475C-AF93-93E19B31FE5C}"/>
@@ -71087,10 +71100,10 @@
       <c r="A1" s="97" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
       <c r="F1" s="97" t="s">
         <v>84</v>
       </c>
@@ -71151,7 +71164,7 @@
       </c>
       <c r="B5" s="66">
         <f ca="1">TODAY()</f>
-        <v>45656</v>
+        <v>45659</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
